--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="113">
   <si>
     <t xml:space="preserve">Mech 2nd A</t>
   </si>
@@ -38,325 +38,331 @@
     <t xml:space="preserve"> Roll No.</t>
   </si>
   <si>
+    <t xml:space="preserve">S1(30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AADITYA BENIWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHISHEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHISHEK KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKSHAY KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAN SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKUSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUJ KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHISH KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALWANT KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHUPENDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANDAN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHETAN SAINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPAK KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPANSHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOURAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GURMEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARDEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARSHIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIMANSHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGDEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JATIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPIL BHARDWAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPIL DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARTIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAKSHAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAL CHAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIK YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANEET KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANJEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHIT KUMAR SONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVNEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NITIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANKAJ KUMAR YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARVEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRADEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRANIT BABU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRASHANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAVEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIYHANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHUL KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJNESH KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVINDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RITESH KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCKY KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROHIT KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGAR KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAHIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAHIL KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALEEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANSAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAROJ BALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEJAL VERMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHASHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVAM SAINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOKEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUBHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUBHAM PRAJAPATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURAV SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUKHBACHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMIT KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSHIL SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANVEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUSHANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAGISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKASH KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVEK KOHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOGESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mech 2nd B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sessional - 1 (30)</t>
   </si>
   <si>
     <t xml:space="preserve">Assignment-1 (10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AADITYA BENIWAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AARTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHISHEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHISHEK KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKSHAY KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAN KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAN SHARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANDEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKUSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUJ KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARPIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASHISH KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALWANT KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHUPENDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAHAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDAN KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHETAN SAINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEEPAK KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEEPANSHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINESH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOURAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GURMEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARDEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARSHIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEMANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIMANSHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAGDEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JATIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPIL BHARDWAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPIL DEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAKSHAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAL CHAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LALIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAHESH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIK YADAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAMTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANEET KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANJEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOHIT KUMAR SONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVNEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NITIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANKAJ KUMAR YADAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARVEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRADEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRANIT BABU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRASHANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAVEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIYHANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAHUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAHUL KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAJAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAJNESH KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAVINDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RITESH KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCKY KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROHIT KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACHIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAGAR KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAHIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAHIL KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALEEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMEER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAROJ BALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEJAL VERMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHASHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIVAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIVAM SAINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOKEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUBHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUBHAM PRAJAPATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURAV SINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUKHBACHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMIT KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSHIL SHARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANVEER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUSHANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAGISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIKAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIKASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIKASH KUMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIKRAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVEK KOHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOGESH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mech 2nd B</t>
   </si>
 </sst>
 </file>
@@ -666,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G70" activeCellId="0" sqref="G70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,7 +695,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2810,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -373,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -394,12 +394,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -492,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,31 +507,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +535,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,7 +543,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,7 +663,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,29 +676,29 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="3" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -716,13 +706,13 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>220041700001</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="n">
@@ -733,13 +723,13 @@
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <v>220041700002</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="n">
@@ -750,13 +740,13 @@
       <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="10" t="n">
         <v>220041700003</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="n">
@@ -767,13 +757,13 @@
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>220041700004</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="n">
@@ -784,13 +774,13 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>220041700005</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>17</v>
       </c>
       <c r="E7" s="4" t="n">
@@ -801,13 +791,13 @@
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="10" t="n">
         <v>220041700006</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="n">
@@ -818,13 +808,13 @@
       <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>220041700007</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>8.5</v>
       </c>
       <c r="E9" s="4" t="n">
@@ -835,13 +825,13 @@
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>220041700008</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="11" t="n">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="n">
@@ -852,13 +842,13 @@
       <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="10" t="n">
         <v>220041700009</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="11" t="n">
         <v>13</v>
       </c>
       <c r="E11" s="4" t="n">
@@ -869,13 +859,13 @@
       <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="10" t="n">
         <v>220041700010</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="n">
@@ -886,13 +876,13 @@
       <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="10" t="n">
         <v>220041700011</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="4" t="n">
@@ -903,13 +893,13 @@
       <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>220041700012</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="4" t="n">
@@ -920,13 +910,13 @@
       <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>220041700013</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="11" t="n">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="n">
@@ -937,13 +927,13 @@
       <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>220041700014</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="n">
@@ -954,13 +944,13 @@
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>220041700015</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="4" t="n">
@@ -971,13 +961,13 @@
       <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>220041700016</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="n">
@@ -988,13 +978,13 @@
       <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>220041700017</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="11" t="n">
         <v>14</v>
       </c>
       <c r="E19" s="4"/>
@@ -1003,13 +993,13 @@
       <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>220041700020</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="11" t="n">
         <v>19</v>
       </c>
       <c r="E20" s="4" t="n">
@@ -1020,13 +1010,13 @@
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>220041700021</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="11" t="n">
         <v>4</v>
       </c>
       <c r="E21" s="4" t="n">
@@ -1037,13 +1027,13 @@
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>220041700022</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="11" t="n">
         <v>26</v>
       </c>
       <c r="E22" s="4" t="n">
@@ -1054,13 +1044,13 @@
       <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>220041700023</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="11" t="n">
         <v>16</v>
       </c>
       <c r="E23" s="4" t="n">
@@ -1071,13 +1061,13 @@
       <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>220041700024</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="11" t="n">
         <v>13</v>
       </c>
       <c r="E24" s="4" t="n">
@@ -1088,13 +1078,13 @@
       <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>220041700025</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="4" t="n">
@@ -1105,13 +1095,13 @@
       <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <v>220041700026</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="11" t="n">
         <v>7</v>
       </c>
       <c r="E26" s="4" t="n">
@@ -1122,13 +1112,13 @@
       <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>220041700027</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="11" t="n">
         <v>12</v>
       </c>
       <c r="E27" s="4" t="n">
@@ -1139,13 +1129,13 @@
       <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="10" t="n">
         <v>220041700028</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="11" t="n">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="n">
@@ -1156,13 +1146,13 @@
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>220041700029</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="11" t="n">
         <v>6</v>
       </c>
       <c r="E29" s="4" t="n">
@@ -1173,13 +1163,13 @@
       <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>220041700030</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="4" t="n">
@@ -1190,13 +1180,13 @@
       <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>220041700031</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E31" s="4" t="n">
@@ -1207,13 +1197,13 @@
       <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="10" t="n">
         <v>220041700032</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="4" t="n">
@@ -1224,13 +1214,13 @@
       <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>220041700033</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="4" t="n">
@@ -1241,13 +1231,13 @@
       <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="10" t="n">
         <v>220041700034</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="11" t="n">
         <v>15.5</v>
       </c>
       <c r="E34" s="4" t="n">
@@ -1258,13 +1248,13 @@
       <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>220041700035</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="11" t="n">
         <v>14</v>
       </c>
       <c r="E35" s="4" t="n">
@@ -1275,13 +1265,13 @@
       <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>220041700036</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="11" t="n">
         <v>16.5</v>
       </c>
       <c r="E36" s="4" t="n">
@@ -1292,13 +1282,13 @@
       <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="10" t="n">
         <v>220041700037</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E37" s="4" t="n">
@@ -1309,13 +1299,13 @@
       <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="10" t="n">
         <v>220041700038</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="11" t="n">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="n">
@@ -1326,13 +1316,13 @@
       <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="10" t="n">
         <v>220041700039</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="4" t="n">
@@ -1343,13 +1333,13 @@
       <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="10" t="n">
         <v>220041700040</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="11" t="n">
         <v>7</v>
       </c>
       <c r="E40" s="4" t="n">
@@ -1360,13 +1350,13 @@
       <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="11" t="n">
+      <c r="C41" s="10" t="n">
         <v>220041700042</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E41" s="4" t="n">
@@ -1377,13 +1367,13 @@
       <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="10" t="n">
         <v>220041700043</v>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="11" t="n">
         <v>15</v>
       </c>
       <c r="E42" s="4" t="n">
@@ -1394,13 +1384,13 @@
       <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="11" t="n">
+      <c r="C43" s="10" t="n">
         <v>220041700044</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="4" t="n">
@@ -1411,13 +1401,13 @@
       <c r="A44" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="10" t="n">
         <v>220041700045</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E44" s="4" t="n">
@@ -1428,13 +1418,13 @@
       <c r="A45" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="10" t="n">
         <v>220041700046</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="4" t="n">
@@ -1445,13 +1435,13 @@
       <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="10" t="n">
         <v>220041700047</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="4" t="n">
@@ -1462,13 +1452,13 @@
       <c r="A47" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="10" t="n">
         <v>220041700048</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="4" t="n">
@@ -1479,13 +1469,13 @@
       <c r="A48" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="10" t="n">
         <v>220041700049</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="11" t="n">
         <v>20</v>
       </c>
       <c r="E48" s="4"/>
@@ -1494,13 +1484,13 @@
       <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="11" t="n">
+      <c r="C49" s="10" t="n">
         <v>220041700050</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="4" t="n">
@@ -1511,13 +1501,13 @@
       <c r="A50" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C50" s="10" t="n">
         <v>220041700051</v>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E50" s="4" t="n">
@@ -1528,13 +1518,13 @@
       <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="11" t="n">
+      <c r="C51" s="10" t="n">
         <v>220041700052</v>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="11" t="n">
         <v>16</v>
       </c>
       <c r="E51" s="4" t="n">
@@ -1545,13 +1535,13 @@
       <c r="A52" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="10" t="n">
         <v>220041700053</v>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="11" t="n">
         <v>4</v>
       </c>
       <c r="E52" s="4" t="n">
@@ -1562,13 +1552,13 @@
       <c r="A53" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="11" t="n">
+      <c r="C53" s="10" t="n">
         <v>220041700054</v>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="11" t="n">
         <v>6</v>
       </c>
       <c r="E53" s="4" t="n">
@@ -1579,13 +1569,13 @@
       <c r="A54" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="10" t="n">
         <v>220041700055</v>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="11" t="n">
         <v>6</v>
       </c>
       <c r="E54" s="4" t="n">
@@ -1596,13 +1586,13 @@
       <c r="A55" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C55" s="10" t="n">
         <v>220041700056</v>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E55" s="4" t="n">
@@ -1613,13 +1603,13 @@
       <c r="A56" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C56" s="10" t="n">
         <v>220041700057</v>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="11" t="n">
         <v>13</v>
       </c>
       <c r="E56" s="4" t="n">
@@ -1630,13 +1620,13 @@
       <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="11" t="n">
+      <c r="C57" s="10" t="n">
         <v>220041700058</v>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="11" t="n">
         <v>11</v>
       </c>
       <c r="E57" s="4" t="n">
@@ -1647,13 +1637,13 @@
       <c r="A58" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C58" s="10" t="n">
         <v>220041700059</v>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="11" t="n">
         <v>15</v>
       </c>
       <c r="E58" s="4" t="n">
@@ -1664,13 +1654,13 @@
       <c r="A59" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="11" t="n">
+      <c r="C59" s="10" t="n">
         <v>220041700060</v>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="11" t="n">
         <v>3</v>
       </c>
       <c r="E59" s="4" t="n">
@@ -1681,13 +1671,13 @@
       <c r="A60" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C60" s="10" t="n">
         <v>220041700061</v>
       </c>
-      <c r="D60" s="12" t="n">
+      <c r="D60" s="11" t="n">
         <v>6</v>
       </c>
       <c r="E60" s="4" t="n">
@@ -1698,13 +1688,13 @@
       <c r="A61" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="11" t="n">
+      <c r="C61" s="10" t="n">
         <v>220041700063</v>
       </c>
-      <c r="D61" s="12" t="n">
+      <c r="D61" s="11" t="n">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="n">
@@ -1715,13 +1705,13 @@
       <c r="A62" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="11" t="n">
+      <c r="C62" s="10" t="n">
         <v>220041700064</v>
       </c>
-      <c r="D62" s="12" t="n">
+      <c r="D62" s="11" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="4" t="n">
@@ -1732,13 +1722,13 @@
       <c r="A63" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="11" t="n">
+      <c r="C63" s="10" t="n">
         <v>220041700065</v>
       </c>
-      <c r="D63" s="12" t="n">
+      <c r="D63" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E63" s="4" t="n">
@@ -1749,13 +1739,13 @@
       <c r="A64" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C64" s="10" t="n">
         <v>220041700066</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="4" t="n">
@@ -1766,13 +1756,13 @@
       <c r="A65" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="11" t="n">
+      <c r="C65" s="10" t="n">
         <v>220041700067</v>
       </c>
-      <c r="D65" s="12" t="n">
+      <c r="D65" s="11" t="n">
         <v>21</v>
       </c>
       <c r="E65" s="4" t="n">
@@ -1783,10 +1773,10 @@
       <c r="A66" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C66" s="10" t="n">
         <v>220041700068</v>
       </c>
       <c r="D66" s="4" t="n">
@@ -1800,10 +1790,10 @@
       <c r="A67" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="11" t="n">
+      <c r="C67" s="10" t="n">
         <v>220041700069</v>
       </c>
       <c r="D67" s="4" t="n">
@@ -1817,10 +1807,10 @@
       <c r="A68" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C68" s="10" t="n">
         <v>220041700070</v>
       </c>
       <c r="D68" s="4" t="n">
@@ -1834,10 +1824,10 @@
       <c r="A69" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="11" t="n">
+      <c r="C69" s="10" t="n">
         <v>220041700071</v>
       </c>
       <c r="D69" s="4" t="n">
@@ -1851,10 +1841,10 @@
       <c r="A70" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C70" s="10" t="n">
         <v>220041700072</v>
       </c>
       <c r="D70" s="4" t="n">
@@ -1868,10 +1858,10 @@
       <c r="A71" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="11" t="n">
+      <c r="C71" s="10" t="n">
         <v>220041700073</v>
       </c>
       <c r="D71" s="4" t="n">
@@ -1885,13 +1875,13 @@
       <c r="A72" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C72" s="10" t="n">
         <v>220041700074</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="4" t="n">
@@ -1902,10 +1892,10 @@
       <c r="A73" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="11" t="n">
+      <c r="C73" s="10" t="n">
         <v>220041700076</v>
       </c>
       <c r="D73" s="4" t="n">
@@ -1919,10 +1909,10 @@
       <c r="A74" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C74" s="10" t="n">
         <v>220041700077</v>
       </c>
       <c r="D74" s="4" t="n">
@@ -1936,10 +1926,10 @@
       <c r="A75" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="11" t="n">
+      <c r="C75" s="10" t="n">
         <v>220041700078</v>
       </c>
       <c r="D75" s="4" t="n">
@@ -1953,10 +1943,10 @@
       <c r="A76" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C76" s="10" t="n">
         <v>220041700079</v>
       </c>
       <c r="D76" s="4" t="n">
@@ -1970,10 +1960,10 @@
       <c r="A77" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="11" t="n">
+      <c r="C77" s="10" t="n">
         <v>220041700080</v>
       </c>
       <c r="D77" s="4" t="n">
@@ -1987,10 +1977,10 @@
       <c r="A78" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C78" s="10" t="n">
         <v>220041700081</v>
       </c>
       <c r="D78" s="4" t="n">
@@ -2004,10 +1994,10 @@
       <c r="A79" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="11" t="n">
+      <c r="C79" s="10" t="n">
         <v>220041700082</v>
       </c>
       <c r="D79" s="4" t="n">
@@ -2021,10 +2011,10 @@
       <c r="A80" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C80" s="10" t="n">
         <v>220041700084</v>
       </c>
       <c r="D80" s="4" t="n">
@@ -2038,10 +2028,10 @@
       <c r="A81" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="11" t="n">
+      <c r="C81" s="10" t="n">
         <v>220041700085</v>
       </c>
       <c r="D81" s="4" t="n">
@@ -2055,10 +2045,10 @@
       <c r="A82" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="11" t="n">
+      <c r="C82" s="10" t="n">
         <v>220041700086</v>
       </c>
       <c r="D82" s="4" t="n">
@@ -2072,10 +2062,10 @@
       <c r="A83" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="11" t="n">
+      <c r="C83" s="10" t="n">
         <v>220041700087</v>
       </c>
       <c r="D83" s="4" t="n">
@@ -2089,10 +2079,10 @@
       <c r="A84" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="11" t="n">
+      <c r="C84" s="10" t="n">
         <v>220041700088</v>
       </c>
       <c r="D84" s="4" t="n">
@@ -2106,10 +2096,10 @@
       <c r="A85" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="11" t="n">
+      <c r="C85" s="10" t="n">
         <v>220041700089</v>
       </c>
       <c r="D85" s="4" t="n">
@@ -2123,10 +2113,10 @@
       <c r="A86" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="11" t="n">
+      <c r="C86" s="10" t="n">
         <v>220041700090</v>
       </c>
       <c r="D86" s="4" t="n">
@@ -2140,10 +2130,10 @@
       <c r="A87" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="11" t="n">
+      <c r="C87" s="10" t="n">
         <v>220041700091</v>
       </c>
       <c r="D87" s="4" t="n">
@@ -2157,10 +2147,10 @@
       <c r="A88" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="C88" s="10" t="n">
         <v>220041700092</v>
       </c>
       <c r="D88" s="4" t="n">
@@ -2174,10 +2164,10 @@
       <c r="A89" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="11" t="n">
+      <c r="C89" s="10" t="n">
         <v>220041700096</v>
       </c>
       <c r="D89" s="4" t="n">
@@ -2191,10 +2181,10 @@
       <c r="A90" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="11" t="n">
+      <c r="C90" s="10" t="n">
         <v>220041700097</v>
       </c>
       <c r="D90" s="4" t="n">
@@ -2208,10 +2198,10 @@
       <c r="A91" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="11" t="n">
+      <c r="C91" s="10" t="n">
         <v>220041700098</v>
       </c>
       <c r="D91" s="4" t="n">
@@ -2225,10 +2215,10 @@
       <c r="A92" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="11" t="n">
+      <c r="C92" s="10" t="n">
         <v>220041700099</v>
       </c>
       <c r="D92" s="4" t="n">
@@ -2242,10 +2232,10 @@
       <c r="A93" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="11" t="n">
+      <c r="C93" s="10" t="n">
         <v>220041700100</v>
       </c>
       <c r="D93" s="4" t="n">
@@ -2259,13 +2249,13 @@
       <c r="A94" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C94" s="11" t="n">
+      <c r="C94" s="10" t="n">
         <v>220041700101</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="4" t="n">
@@ -2276,10 +2266,10 @@
       <c r="A95" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="11" t="n">
+      <c r="C95" s="10" t="n">
         <v>220041700102</v>
       </c>
       <c r="D95" s="4" t="n">
@@ -2293,10 +2283,10 @@
       <c r="A96" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="11" t="n">
+      <c r="C96" s="10" t="n">
         <v>220041700103</v>
       </c>
       <c r="D96" s="4" t="n">
@@ -2310,13 +2300,13 @@
       <c r="A97" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="11" t="n">
+      <c r="C97" s="10" t="n">
         <v>220041700104</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="4" t="n">
@@ -2327,10 +2317,10 @@
       <c r="A98" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C98" s="10" t="n">
         <v>220041700105</v>
       </c>
       <c r="D98" s="4" t="n">
@@ -2344,13 +2334,13 @@
       <c r="A99" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C99" s="11" t="n">
+      <c r="C99" s="10" t="n">
         <v>220041700106</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E99" s="4" t="n">
@@ -2361,10 +2351,10 @@
       <c r="A100" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="11" t="n">
+      <c r="C100" s="10" t="n">
         <v>220041700107</v>
       </c>
       <c r="D100" s="4" t="n">
@@ -2378,10 +2368,10 @@
       <c r="A101" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C101" s="11" t="n">
+      <c r="C101" s="10" t="n">
         <v>220041700108</v>
       </c>
       <c r="D101" s="4" t="n">
@@ -2395,10 +2385,10 @@
       <c r="A102" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="11" t="n">
+      <c r="C102" s="10" t="n">
         <v>220041700109</v>
       </c>
       <c r="D102" s="4" t="n">
@@ -2412,10 +2402,10 @@
       <c r="A103" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="11" t="n">
+      <c r="C103" s="10" t="n">
         <v>220041700110</v>
       </c>
       <c r="D103" s="4" t="n">
@@ -2429,10 +2419,10 @@
       <c r="A104" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="11" t="n">
+      <c r="C104" s="10" t="n">
         <v>220041700111</v>
       </c>
       <c r="D104" s="4" t="n">
@@ -2446,10 +2436,10 @@
       <c r="A105" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="11" t="n">
+      <c r="C105" s="10" t="n">
         <v>220041700112</v>
       </c>
       <c r="D105" s="4" t="n">
@@ -2463,10 +2453,10 @@
       <c r="A106" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="11" t="n">
+      <c r="C106" s="10" t="n">
         <v>220041700113</v>
       </c>
       <c r="D106" s="4" t="n">
@@ -2480,10 +2470,10 @@
       <c r="A107" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="11" t="n">
+      <c r="C107" s="10" t="n">
         <v>220041700115</v>
       </c>
       <c r="D107" s="4" t="n">
@@ -2497,13 +2487,13 @@
       <c r="A108" s="4" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="11" t="n">
+      <c r="C108" s="10" t="n">
         <v>220041700116</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="4" t="n">
@@ -2514,10 +2504,10 @@
       <c r="A109" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="11" t="n">
+      <c r="C109" s="10" t="n">
         <v>220041700117</v>
       </c>
       <c r="D109" s="4" t="n">
@@ -2531,10 +2521,10 @@
       <c r="A110" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="11" t="n">
+      <c r="C110" s="10" t="n">
         <v>220041700118</v>
       </c>
       <c r="D110" s="4" t="n">
@@ -2548,10 +2538,10 @@
       <c r="A111" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="11" t="n">
+      <c r="C111" s="10" t="n">
         <v>220041700119</v>
       </c>
       <c r="D111" s="4" t="n">
@@ -2565,10 +2555,10 @@
       <c r="A112" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C112" s="11" t="n">
+      <c r="C112" s="10" t="n">
         <v>220041700121</v>
       </c>
       <c r="D112" s="4" t="n">
@@ -2582,10 +2572,10 @@
       <c r="A113" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C113" s="11" t="n">
+      <c r="C113" s="10" t="n">
         <v>220041700122</v>
       </c>
       <c r="D113" s="4" t="n">
@@ -2599,10 +2589,10 @@
       <c r="A114" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="11" t="n">
+      <c r="C114" s="10" t="n">
         <v>220041700123</v>
       </c>
       <c r="D114" s="4" t="n">
@@ -2616,13 +2606,13 @@
       <c r="A115" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="11" t="n">
+      <c r="C115" s="10" t="n">
         <v>220041700124</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E115" s="4" t="n">
@@ -2633,10 +2623,10 @@
       <c r="A116" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="11" t="n">
+      <c r="C116" s="10" t="n">
         <v>220041700125</v>
       </c>
       <c r="D116" s="4" t="n">
@@ -2650,13 +2640,13 @@
       <c r="A117" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="11" t="n">
+      <c r="C117" s="10" t="n">
         <v>220041700126</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E117" s="4" t="n">
@@ -2667,10 +2657,10 @@
       <c r="A118" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="11" t="n">
+      <c r="C118" s="10" t="n">
         <v>220041700130</v>
       </c>
       <c r="D118" s="4" t="n">
@@ -2684,10 +2674,10 @@
       <c r="A119" s="4" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="11" t="n">
+      <c r="C119" s="10" t="n">
         <v>220041700131</v>
       </c>
       <c r="D119" s="4" t="n">
@@ -2701,10 +2691,10 @@
       <c r="A120" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="11" t="n">
+      <c r="C120" s="10" t="n">
         <v>220041700132</v>
       </c>
       <c r="D120" s="4" t="n">
@@ -2718,10 +2708,10 @@
       <c r="A121" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C121" s="11" t="n">
+      <c r="C121" s="10" t="n">
         <v>220041700133</v>
       </c>
       <c r="D121" s="4" t="n">
@@ -2735,10 +2725,10 @@
       <c r="A122" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="11" t="n">
+      <c r="C122" s="10" t="n">
         <v>220041700134</v>
       </c>
       <c r="D122" s="4" t="n">
@@ -2750,7 +2740,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D65">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="0">
@@ -2797,39 +2787,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>220041700068</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -2840,13 +2830,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <v>220041700069</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -2857,13 +2847,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="10" t="n">
         <v>220041700070</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -2874,13 +2864,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>220041700071</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -2891,13 +2881,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>220041700072</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -2908,13 +2898,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="10" t="n">
         <v>220041700073</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -2925,16 +2915,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>220041700074</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="4" t="n">
@@ -2942,13 +2932,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>220041700076</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -2959,13 +2949,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="10" t="n">
         <v>220041700077</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -2976,13 +2966,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="10" t="n">
         <v>220041700078</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -2993,13 +2983,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="10" t="n">
         <v>220041700079</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -3010,13 +3000,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>220041700080</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -3027,13 +3017,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>220041700081</v>
       </c>
       <c r="D15" s="4" t="n">
@@ -3044,13 +3034,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>220041700082</v>
       </c>
       <c r="D16" s="4" t="n">
@@ -3061,13 +3051,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>220041700084</v>
       </c>
       <c r="D17" s="4" t="n">
@@ -3078,13 +3068,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>220041700085</v>
       </c>
       <c r="D18" s="4" t="n">
@@ -3095,13 +3085,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>220041700086</v>
       </c>
       <c r="D19" s="4" t="n">
@@ -3112,13 +3102,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>220041700087</v>
       </c>
       <c r="D20" s="4" t="n">
@@ -3129,13 +3119,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>220041700088</v>
       </c>
       <c r="D21" s="4" t="n">
@@ -3146,13 +3136,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>220041700089</v>
       </c>
       <c r="D22" s="4" t="n">
@@ -3163,13 +3153,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>220041700090</v>
       </c>
       <c r="D23" s="4" t="n">
@@ -3180,13 +3170,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>220041700091</v>
       </c>
       <c r="D24" s="4" t="n">
@@ -3197,13 +3187,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>220041700092</v>
       </c>
       <c r="D25" s="4" t="n">
@@ -3214,13 +3204,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <v>220041700096</v>
       </c>
       <c r="D26" s="4" t="n">
@@ -3231,13 +3221,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>220041700097</v>
       </c>
       <c r="D27" s="4" t="n">
@@ -3248,13 +3238,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+      <c r="A28" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="10" t="n">
         <v>220041700098</v>
       </c>
       <c r="D28" s="4" t="n">
@@ -3265,13 +3255,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>220041700099</v>
       </c>
       <c r="D29" s="4" t="n">
@@ -3282,13 +3272,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+      <c r="A30" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>220041700100</v>
       </c>
       <c r="D30" s="4" t="n">
@@ -3299,16 +3289,16 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="A31" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>220041700101</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="4" t="n">
@@ -3316,13 +3306,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="10" t="n">
         <v>220041700102</v>
       </c>
       <c r="D32" s="4" t="n">
@@ -3333,13 +3323,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
+      <c r="A33" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>220041700103</v>
       </c>
       <c r="D33" s="4" t="n">
@@ -3350,16 +3340,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="10" t="n">
         <v>220041700104</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="4" t="n">
@@ -3367,13 +3357,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>220041700105</v>
       </c>
       <c r="D35" s="4" t="n">
@@ -3384,16 +3374,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="A36" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>220041700106</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="4" t="n">
@@ -3401,13 +3391,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="10" t="n">
         <v>220041700107</v>
       </c>
       <c r="D37" s="4" t="n">
@@ -3418,13 +3408,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="10" t="n">
         <v>220041700108</v>
       </c>
       <c r="D38" s="4" t="n">
@@ -3435,13 +3425,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="10" t="n">
         <v>220041700109</v>
       </c>
       <c r="D39" s="4" t="n">
@@ -3452,13 +3442,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+      <c r="A40" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="10" t="n">
         <v>220041700110</v>
       </c>
       <c r="D40" s="4" t="n">
@@ -3469,13 +3459,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="11" t="n">
+      <c r="C41" s="10" t="n">
         <v>220041700111</v>
       </c>
       <c r="D41" s="4" t="n">
@@ -3486,13 +3476,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="10" t="n">
         <v>220041700112</v>
       </c>
       <c r="D42" s="4" t="n">
@@ -3503,13 +3493,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
+      <c r="A43" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="11" t="n">
+      <c r="C43" s="10" t="n">
         <v>220041700113</v>
       </c>
       <c r="D43" s="4" t="n">
@@ -3520,13 +3510,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="10" t="n">
         <v>220041700115</v>
       </c>
       <c r="D44" s="4" t="n">
@@ -3537,16 +3527,16 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="10" t="n">
         <v>220041700116</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="4" t="n">
@@ -3554,13 +3544,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
+      <c r="A46" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="10" t="n">
         <v>220041700117</v>
       </c>
       <c r="D46" s="4" t="n">
@@ -3571,13 +3561,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="10" t="n">
         <v>220041700118</v>
       </c>
       <c r="D47" s="4" t="n">
@@ -3588,13 +3578,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+      <c r="A48" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="10" t="n">
         <v>220041700119</v>
       </c>
       <c r="D48" s="4" t="n">
@@ -3605,13 +3595,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="11" t="n">
+      <c r="C49" s="10" t="n">
         <v>220041700121</v>
       </c>
       <c r="D49" s="4" t="n">
@@ -3622,13 +3612,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C50" s="10" t="n">
         <v>220041700122</v>
       </c>
       <c r="D50" s="4" t="n">
@@ -3639,13 +3629,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+      <c r="A51" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="11" t="n">
+      <c r="C51" s="10" t="n">
         <v>220041700123</v>
       </c>
       <c r="D51" s="4" t="n">
@@ -3656,16 +3646,16 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+      <c r="A52" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="10" t="n">
         <v>220041700124</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="4" t="n">
@@ -3673,13 +3663,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="11" t="n">
+      <c r="C53" s="10" t="n">
         <v>220041700125</v>
       </c>
       <c r="D53" s="4" t="n">
@@ -3690,16 +3680,16 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+      <c r="A54" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="10" t="n">
         <v>220041700126</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="4" t="n">
@@ -3707,13 +3697,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+      <c r="A55" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C55" s="10" t="n">
         <v>220041700130</v>
       </c>
       <c r="D55" s="4" t="n">
@@ -3724,13 +3714,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
+      <c r="A56" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C56" s="10" t="n">
         <v>220041700131</v>
       </c>
       <c r="D56" s="4" t="n">
@@ -3741,13 +3731,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="A57" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="11" t="n">
+      <c r="C57" s="10" t="n">
         <v>220041700132</v>
       </c>
       <c r="D57" s="4" t="n">
@@ -3758,13 +3748,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="A58" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C58" s="10" t="n">
         <v>220041700133</v>
       </c>
       <c r="D58" s="4" t="n">
@@ -3775,13 +3765,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
+      <c r="A59" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="11" t="n">
+      <c r="C59" s="10" t="n">
         <v>220041700134</v>
       </c>
       <c r="D59" s="4" t="n">

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve"> Roll No.</t>
   </si>
   <si>
-    <t xml:space="preserve">S1(30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2(30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2(25)</t>
+    <t xml:space="preserve">S1 (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2 (25)</t>
   </si>
   <si>
     <t xml:space="preserve">AADITYA BENIWAL</t>
@@ -691,7 +691,7 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="116">
   <si>
     <t xml:space="preserve">Mech 2nd A</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">A2 (25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3 (25)</t>
   </si>
   <si>
     <t xml:space="preserve">AADITYA BENIWAL</t>
@@ -688,10 +691,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H123" activeCellId="0" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,8 +704,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,6 +718,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -738,13 +742,16 @@
       <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>220041700001</v>
@@ -759,6 +766,9 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -767,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>220041700002</v>
@@ -783,6 +793,9 @@
       </c>
       <c r="G4" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>220041700003</v>
@@ -805,6 +818,9 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -813,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>220041700004</v>
@@ -829,6 +845,9 @@
       </c>
       <c r="G6" s="5" t="n">
         <v>23</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>220041700005</v>
@@ -851,6 +870,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>220041700006</v>
@@ -875,6 +897,9 @@
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>220041700007</v>
@@ -891,12 +916,15 @@
         <v>8.5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>220041700008</v>
@@ -921,6 +949,9 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>220041700009</v>
@@ -945,13 +976,16 @@
       <c r="G11" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>220041700010</v>
@@ -967,6 +1001,9 @@
       </c>
       <c r="G12" s="5" t="n">
         <v>14</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,13 +1011,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>220041700011</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>16</v>
@@ -990,6 +1027,9 @@
       </c>
       <c r="G13" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,13 +1037,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>220041700012</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>1</v>
@@ -1012,6 +1052,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>220041700013</v>
@@ -1029,13 +1072,16 @@
         <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>220041700014</v>
@@ -1060,27 +1106,33 @@
       <c r="G16" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="H16" s="5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>220041700015</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>220041700016</v>
@@ -1105,6 +1157,9 @@
       </c>
       <c r="G18" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12" t="n">
         <v>220041700017</v>
@@ -1128,6 +1183,9 @@
       </c>
       <c r="G19" s="5" t="n">
         <v>18</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>220041700020</v>
@@ -1151,6 +1209,9 @@
       </c>
       <c r="G20" s="5" t="n">
         <v>18</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>220041700021</v>
@@ -1173,6 +1234,9 @@
         <v>10</v>
       </c>
       <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12" t="n">
         <v>220041700022</v>
@@ -1197,6 +1261,9 @@
       </c>
       <c r="G22" s="5" t="n">
         <v>18</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="12" t="n">
         <v>220041700023</v>
@@ -1220,6 +1287,9 @@
       </c>
       <c r="G23" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>220041700024</v>
@@ -1242,6 +1312,9 @@
         <v>10</v>
       </c>
       <c r="G24" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1250,13 +1323,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>220041700025</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>4</v>
@@ -1267,13 +1340,16 @@
       <c r="G25" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="H25" s="5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>220041700026</v>
@@ -1289,6 +1365,9 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>220041700027</v>
@@ -1312,6 +1391,9 @@
       </c>
       <c r="G27" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1401,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>220041700028</v>
@@ -1335,6 +1417,9 @@
       </c>
       <c r="G28" s="5" t="n">
         <v>24</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1427,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>220041700029</v>
@@ -1358,6 +1443,9 @@
       </c>
       <c r="G29" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,13 +1453,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>220041700030</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>1</v>
@@ -1380,6 +1468,9 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>220041700031</v>
@@ -1404,6 +1495,9 @@
       </c>
       <c r="G31" s="5" t="n">
         <v>13</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,13 +1505,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>220041700032</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>1</v>
@@ -1426,6 +1520,9 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,13 +1531,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>220041700033</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>13.5</v>
@@ -1450,6 +1547,9 @@
       </c>
       <c r="G33" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1557,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>220041700034</v>
@@ -1473,6 +1573,9 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>220041700035</v>
@@ -1496,6 +1599,9 @@
       </c>
       <c r="G35" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>220041700036</v>
@@ -1519,6 +1625,9 @@
       </c>
       <c r="G36" s="5" t="n">
         <v>24</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1635,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>220041700037</v>
@@ -1541,7 +1650,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1661,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>220041700038</v>
@@ -1561,10 +1673,13 @@
         <v>8</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>220041700039</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>3</v>
@@ -1588,6 +1703,9 @@
       </c>
       <c r="G39" s="5" t="n">
         <v>14</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>220041700040</v>
@@ -1611,6 +1729,9 @@
       </c>
       <c r="G40" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>220041700042</v>
@@ -1630,10 +1751,13 @@
         <v>12</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1765,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>220041700043</v>
@@ -1657,6 +1781,9 @@
       </c>
       <c r="G42" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1791,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>220041700044</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>7</v>
@@ -1680,6 +1807,9 @@
       </c>
       <c r="G43" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>220041700045</v>
@@ -1703,6 +1833,9 @@
       </c>
       <c r="G44" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,13 +1843,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>220041700046</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>5</v>
@@ -1726,6 +1859,9 @@
       </c>
       <c r="G45" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,21 +1869,24 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>220041700047</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1756,13 +1895,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>220041700048</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>1.5</v>
@@ -1772,6 +1911,9 @@
       </c>
       <c r="G47" s="5" t="n">
         <v>9</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +1921,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>220041700049</v>
@@ -1790,9 +1932,14 @@
       <c r="E48" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="G48" s="5" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,21 +1947,24 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>220041700050</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1823,7 +1973,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>220041700051</v>
@@ -1839,6 +1989,9 @@
       </c>
       <c r="G50" s="5" t="n">
         <v>19</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1999,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>220041700052</v>
@@ -1862,6 +2015,9 @@
       </c>
       <c r="G51" s="5" t="n">
         <v>13</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +2025,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>220041700053</v>
@@ -1884,6 +2040,9 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1892,7 +2051,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>220041700054</v>
@@ -1908,6 +2067,9 @@
       </c>
       <c r="G53" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +2077,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>220041700055</v>
@@ -1930,6 +2092,9 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,7 +2103,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>220041700056</v>
@@ -1954,6 +2119,9 @@
       </c>
       <c r="G55" s="5" t="n">
         <v>17</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +2129,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>220041700057</v>
@@ -1977,6 +2145,9 @@
       </c>
       <c r="G56" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,7 +2155,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>220041700058</v>
@@ -1999,6 +2170,9 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2007,7 +2181,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>220041700059</v>
@@ -2022,6 +2196,9 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,7 +2207,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>220041700060</v>
@@ -2046,6 +2223,9 @@
       </c>
       <c r="G59" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,7 +2233,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>220041700061</v>
@@ -2068,6 +2248,9 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2076,7 +2259,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>220041700063</v>
@@ -2091,6 +2274,9 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,7 +2285,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>220041700064</v>
@@ -2115,6 +2301,9 @@
       </c>
       <c r="G62" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,7 +2311,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>220041700065</v>
@@ -2138,6 +2327,9 @@
       </c>
       <c r="G63" s="5" t="n">
         <v>18</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,13 +2337,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>220041700066</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" s="3" t="n">
         <v>9</v>
@@ -2161,6 +2353,9 @@
       </c>
       <c r="G64" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,7 +2363,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>220041700067</v>
@@ -2184,6 +2379,9 @@
       </c>
       <c r="G65" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,7 +2389,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>220041700068</v>
@@ -2207,6 +2405,9 @@
       </c>
       <c r="G66" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,7 +2415,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="12" t="n">
         <v>220041700069</v>
@@ -2230,6 +2431,9 @@
       </c>
       <c r="G67" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,7 +2441,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="12" t="n">
         <v>220041700070</v>
@@ -2253,6 +2457,9 @@
       </c>
       <c r="G68" s="5" t="n">
         <v>14</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2467,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="12" t="n">
         <v>220041700071</v>
@@ -2276,6 +2483,9 @@
       </c>
       <c r="G69" s="5" t="n">
         <v>17</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,7 +2493,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>220041700072</v>
@@ -2298,6 +2508,9 @@
         <v>0</v>
       </c>
       <c r="G70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2519,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>220041700073</v>
@@ -2322,6 +2535,9 @@
       </c>
       <c r="G71" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,13 +2545,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>220041700074</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>12</v>
@@ -2345,6 +2561,9 @@
       </c>
       <c r="G72" s="5" t="n">
         <v>17</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,7 +2571,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>220041700076</v>
@@ -2368,6 +2587,9 @@
       </c>
       <c r="G73" s="5" t="n">
         <v>12</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2597,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>220041700077</v>
@@ -2391,6 +2613,9 @@
       </c>
       <c r="G74" s="5" t="n">
         <v>13</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,7 +2623,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>220041700078</v>
@@ -2414,6 +2639,9 @@
       </c>
       <c r="G75" s="5" t="n">
         <v>23</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2649,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>220041700079</v>
@@ -2437,6 +2665,9 @@
       </c>
       <c r="G76" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2675,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>220041700080</v>
@@ -2460,6 +2691,9 @@
       </c>
       <c r="G77" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,7 +2701,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>220041700081</v>
@@ -2483,6 +2717,9 @@
       </c>
       <c r="G78" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="12" t="n">
         <v>220041700082</v>
@@ -2505,6 +2742,9 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2513,7 +2753,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>220041700084</v>
@@ -2529,6 +2769,9 @@
       </c>
       <c r="G80" s="5" t="n">
         <v>13</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2779,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>220041700085</v>
@@ -2552,6 +2795,9 @@
       </c>
       <c r="G81" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="12" t="n">
         <v>220041700086</v>
@@ -2575,6 +2821,9 @@
       </c>
       <c r="G82" s="5" t="n">
         <v>12</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2831,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="12" t="n">
         <v>220041700087</v>
@@ -2598,6 +2847,9 @@
       </c>
       <c r="G83" s="5" t="n">
         <v>12</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2857,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>220041700088</v>
@@ -2620,6 +2872,9 @@
         <v>0</v>
       </c>
       <c r="G84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +2883,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>220041700089</v>
@@ -2643,6 +2898,9 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2651,7 +2909,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>220041700090</v>
@@ -2666,6 +2924,9 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2674,7 +2935,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" s="12" t="n">
         <v>220041700091</v>
@@ -2690,6 +2951,9 @@
       </c>
       <c r="G87" s="5" t="n">
         <v>10</v>
+      </c>
+      <c r="H87" s="5" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2961,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" s="12" t="n">
         <v>220041700092</v>
@@ -2713,6 +2977,9 @@
       </c>
       <c r="G88" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H88" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +2987,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" s="12" t="n">
         <v>220041700096</v>
@@ -2736,6 +3003,9 @@
       </c>
       <c r="G89" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H89" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +3013,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C90" s="12" t="n">
         <v>220041700097</v>
@@ -2758,6 +3028,9 @@
         <v>0</v>
       </c>
       <c r="G90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2766,7 +3039,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C91" s="12" t="n">
         <v>220041700098</v>
@@ -2782,6 +3055,9 @@
       </c>
       <c r="G91" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H91" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +3065,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C92" s="12" t="n">
         <v>220041700099</v>
@@ -2805,6 +3081,9 @@
       </c>
       <c r="G92" s="5" t="n">
         <v>17</v>
+      </c>
+      <c r="H92" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C93" s="12" t="n">
         <v>220041700100</v>
@@ -2828,6 +3107,9 @@
       </c>
       <c r="G93" s="5" t="n">
         <v>20</v>
+      </c>
+      <c r="H93" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,21 +3117,24 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C94" s="12" t="n">
         <v>220041700101</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +3143,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C95" s="12" t="n">
         <v>220041700102</v>
@@ -2874,6 +3159,9 @@
       </c>
       <c r="G95" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H95" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +3169,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>220041700103</v>
@@ -2897,6 +3185,9 @@
       </c>
       <c r="G96" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H96" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,13 +3195,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97" s="12" t="n">
         <v>220041700104</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>12.5</v>
@@ -2919,6 +3210,9 @@
         <v>0</v>
       </c>
       <c r="G97" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3221,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98" s="12" t="n">
         <v>220041700105</v>
@@ -2943,6 +3237,9 @@
       </c>
       <c r="G98" s="5" t="n">
         <v>23</v>
+      </c>
+      <c r="H98" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,13 +3247,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99" s="12" t="n">
         <v>220041700106</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>14.5</v>
@@ -2966,6 +3263,9 @@
       </c>
       <c r="G99" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,7 +3273,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>220041700107</v>
@@ -2989,6 +3289,9 @@
       </c>
       <c r="G100" s="5" t="n">
         <v>22</v>
+      </c>
+      <c r="H100" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +3299,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>220041700108</v>
@@ -3011,6 +3314,9 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3325,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C102" s="12" t="n">
         <v>220041700109</v>
@@ -3035,6 +3341,9 @@
       </c>
       <c r="G102" s="5" t="n">
         <v>22</v>
+      </c>
+      <c r="H102" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3351,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C103" s="12" t="n">
         <v>220041700110</v>
@@ -3057,6 +3366,9 @@
         <v>0</v>
       </c>
       <c r="G103" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3377,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C104" s="12" t="n">
         <v>220041700111</v>
@@ -3074,12 +3386,15 @@
         <v>15</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3088,7 +3403,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C105" s="12" t="n">
         <v>220041700112</v>
@@ -3104,6 +3419,9 @@
       </c>
       <c r="G105" s="5" t="n">
         <v>13</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +3429,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C106" s="12" t="n">
         <v>220041700113</v>
@@ -3126,6 +3444,9 @@
         <v>0</v>
       </c>
       <c r="G106" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3134,7 +3455,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107" s="12" t="n">
         <v>220041700115</v>
@@ -3149,6 +3470,9 @@
         <v>0</v>
       </c>
       <c r="G107" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3157,13 +3481,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C108" s="12" t="n">
         <v>220041700116</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108" s="3" t="n">
         <v>15</v>
@@ -3172,6 +3496,9 @@
         <v>0</v>
       </c>
       <c r="G108" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3180,7 +3507,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C109" s="12" t="n">
         <v>220041700117</v>
@@ -3196,6 +3523,9 @@
       </c>
       <c r="G109" s="5" t="n">
         <v>16</v>
+      </c>
+      <c r="H109" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3533,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>220041700118</v>
@@ -3219,6 +3549,9 @@
       </c>
       <c r="G110" s="5" t="n">
         <v>12</v>
+      </c>
+      <c r="H110" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3559,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>220041700119</v>
@@ -3241,6 +3574,9 @@
         <v>0</v>
       </c>
       <c r="G111" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,7 +3585,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="12" t="n">
         <v>220041700121</v>
@@ -3265,6 +3601,9 @@
       </c>
       <c r="G112" s="5" t="n">
         <v>18</v>
+      </c>
+      <c r="H112" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3611,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="12" t="n">
         <v>220041700122</v>
@@ -3288,6 +3627,9 @@
       </c>
       <c r="G113" s="5" t="n">
         <v>14</v>
+      </c>
+      <c r="H113" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3637,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C114" s="12" t="n">
         <v>220041700123</v>
@@ -3311,6 +3653,9 @@
       </c>
       <c r="G114" s="5" t="n">
         <v>8</v>
+      </c>
+      <c r="H114" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,13 +3663,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="12" t="n">
         <v>220041700124</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" s="3" t="n">
         <v>14</v>
@@ -3334,6 +3679,9 @@
       </c>
       <c r="G115" s="5" t="n">
         <v>12</v>
+      </c>
+      <c r="H115" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3689,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="12" t="n">
         <v>220041700125</v>
@@ -3357,6 +3705,9 @@
       </c>
       <c r="G116" s="5" t="n">
         <v>22</v>
+      </c>
+      <c r="H116" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,13 +3715,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C117" s="12" t="n">
         <v>220041700126</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>11</v>
@@ -3379,6 +3730,9 @@
         <v>0</v>
       </c>
       <c r="G117" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3387,7 +3741,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C118" s="12" t="n">
         <v>220041700130</v>
@@ -3402,7 +3756,10 @@
         <v>8</v>
       </c>
       <c r="G118" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H118" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3767,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="12" t="n">
         <v>220041700131</v>
@@ -3426,6 +3783,9 @@
       </c>
       <c r="G119" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H119" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3793,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>220041700132</v>
@@ -3449,6 +3809,9 @@
       </c>
       <c r="G120" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H120" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3819,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>220041700133</v>
@@ -3472,6 +3835,9 @@
       </c>
       <c r="G121" s="5" t="n">
         <v>19</v>
+      </c>
+      <c r="H121" s="5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,7 +3845,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C122" s="12" t="n">
         <v>220041700134</v>
@@ -3496,10 +3862,13 @@
       <c r="G122" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="H122" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D65">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="0">
@@ -3548,7 +3917,7 @@
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -3565,10 +3934,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>220041700068</v>
@@ -3593,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>220041700069</v>
@@ -3610,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>220041700070</v>
@@ -3627,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>220041700071</v>
@@ -3644,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>220041700072</v>
@@ -3661,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>220041700073</v>
@@ -3678,13 +4047,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>220041700074</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0</v>
@@ -3695,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>220041700076</v>
@@ -3712,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>220041700077</v>
@@ -3729,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>220041700078</v>
@@ -3746,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>220041700079</v>
@@ -3763,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>220041700080</v>
@@ -3780,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>220041700081</v>
@@ -3797,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>220041700082</v>
@@ -3814,7 +4183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>220041700084</v>
@@ -3831,7 +4200,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>220041700085</v>
@@ -3848,7 +4217,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12" t="n">
         <v>220041700086</v>
@@ -3865,7 +4234,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>220041700087</v>
@@ -3882,7 +4251,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>220041700088</v>
@@ -3899,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="12" t="n">
         <v>220041700089</v>
@@ -3916,7 +4285,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12" t="n">
         <v>220041700090</v>
@@ -3933,7 +4302,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>220041700091</v>
@@ -3950,7 +4319,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>220041700092</v>
@@ -3967,7 +4336,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>220041700096</v>
@@ -3984,7 +4353,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>220041700097</v>
@@ -4001,7 +4370,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>220041700098</v>
@@ -4018,7 +4387,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>220041700099</v>
@@ -4035,7 +4404,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>220041700100</v>
@@ -4052,13 +4421,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>220041700101</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>0</v>
@@ -4069,7 +4438,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>220041700102</v>
@@ -4086,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>220041700103</v>
@@ -4103,13 +4472,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>220041700104</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0</v>
@@ -4120,7 +4489,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>220041700105</v>
@@ -4137,13 +4506,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>220041700106</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0</v>
@@ -4154,7 +4523,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>220041700107</v>
@@ -4171,7 +4540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>220041700108</v>
@@ -4188,7 +4557,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>220041700109</v>
@@ -4205,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>220041700110</v>
@@ -4222,7 +4591,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>220041700111</v>
@@ -4239,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>220041700112</v>
@@ -4256,7 +4625,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>220041700113</v>
@@ -4273,7 +4642,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>220041700115</v>
@@ -4290,13 +4659,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>220041700116</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>0</v>
@@ -4307,7 +4676,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>220041700117</v>
@@ -4324,7 +4693,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>220041700118</v>
@@ -4341,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>220041700119</v>
@@ -4358,7 +4727,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>220041700121</v>
@@ -4375,7 +4744,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>220041700122</v>
@@ -4392,7 +4761,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>220041700123</v>
@@ -4409,13 +4778,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>220041700124</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>0</v>
@@ -4426,7 +4795,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>220041700125</v>
@@ -4443,13 +4812,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>220041700126</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>0</v>
@@ -4460,7 +4829,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>220041700130</v>
@@ -4477,7 +4846,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>220041700131</v>
@@ -4494,7 +4863,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>220041700132</v>
@@ -4511,7 +4880,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>220041700133</v>
@@ -4528,7 +4897,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>220041700134</v>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -381,10 +381,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -582,7 +581,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -741,8 +740,8 @@
   </sheetPr>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +753,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="10" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="10" style="5" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,7 +824,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0.8519</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="17" t="n">
-        <v>0.3704</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="17" t="n">
-        <v>0.7037</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>0.5926</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="17" t="n">
-        <v>0.5926</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>0.3704</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="17" t="n">
-        <v>0.2222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="17" t="n">
-        <v>0.7407</v>
+        <v>74.07</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="17" t="n">
-        <v>0.7407</v>
+        <v>74.07</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="17" t="n">
-        <v>0.7407</v>
+        <v>74.07</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1288,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="17" t="n">
-        <v>0.8889</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="17" t="n">
-        <v>0.2963</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="I22" s="17" t="n">
-        <v>0.8519</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1404,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="I24" s="17" t="n">
-        <v>0.8519</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="17" t="n">
-        <v>0.4815</v>
+        <v>48.15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="17" t="n">
-        <v>0.4815</v>
+        <v>48.15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="17" t="n">
-        <v>0.5926</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="17" t="n">
-        <v>0.1481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="17" t="n">
-        <v>0.1111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="17" t="n">
-        <v>0.5926</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="I34" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="I35" s="17" t="n">
-        <v>0.963</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1781,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="17" t="n">
-        <v>0.6296</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="17" t="n">
-        <v>0.7407</v>
+        <v>74.07</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1868,7 @@
         <v>24</v>
       </c>
       <c r="I39" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="I40" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1926,7 @@
         <v>25</v>
       </c>
       <c r="I41" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="I43" s="17" t="n">
-        <v>0.6296</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2013,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="17" t="n">
-        <v>0.5556</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2042,7 @@
         <v>21</v>
       </c>
       <c r="I45" s="17" t="n">
-        <v>0.5185</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="17" t="n">
-        <v>0.0741</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="17" t="n">
-        <v>0.1852</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2129,7 @@
         <v>25</v>
       </c>
       <c r="I48" s="17" t="n">
-        <v>0.7037</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,7 +2187,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="17" t="n">
-        <v>0.2593</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +2274,7 @@
         <v>25</v>
       </c>
       <c r="I53" s="17" t="n">
-        <v>0.8889</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="I55" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="17" t="n">
-        <v>0.5556</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="17" t="n">
-        <v>0.5185</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2448,7 @@
         <v>25</v>
       </c>
       <c r="I59" s="17" t="n">
-        <v>0.7778</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="17" t="n">
-        <v>0.5556</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="17" t="n">
-        <v>0.8148</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="I62" s="17" t="n">
-        <v>0.5185</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="I63" s="17" t="n">
-        <v>0.7037</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2593,7 @@
         <v>25</v>
       </c>
       <c r="I64" s="17" t="n">
-        <v>0.7407</v>
+        <v>74.07</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,7 +2622,7 @@
         <v>25</v>
       </c>
       <c r="I65" s="17" t="n">
-        <v>0.9259</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="17" t="n">
-        <v>0.6061</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="I67" s="17" t="n">
-        <v>0.5758</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="I68" s="17" t="n">
-        <v>0.7879</v>
+        <v>78.79</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="I69" s="17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="17" t="n">
-        <v>0.4848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="I71" s="17" t="n">
-        <v>0.5758</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="17" t="n">
-        <v>0.5758</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="17" t="n">
-        <v>0.6061</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +2883,7 @@
         <v>25</v>
       </c>
       <c r="I74" s="17" t="n">
-        <v>0.7879</v>
+        <v>78.79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2912,7 @@
         <v>25</v>
       </c>
       <c r="I75" s="17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="17" t="n">
-        <v>0.7879</v>
+        <v>78.79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="17" t="n">
-        <v>0.8182</v>
+        <v>81.82</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +2999,7 @@
         <v>25</v>
       </c>
       <c r="I78" s="17" t="n">
-        <v>0.6364</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="17" t="n">
-        <v>0.2121</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="I80" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3086,7 @@
         <v>25</v>
       </c>
       <c r="I81" s="17" t="n">
-        <v>0.5758</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,7 +3115,7 @@
         <v>25</v>
       </c>
       <c r="I82" s="17" t="n">
-        <v>0.7576</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3144,7 @@
         <v>25</v>
       </c>
       <c r="I83" s="17" t="n">
-        <v>0.303</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="17" t="n">
-        <v>0.4545</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="17" t="n">
-        <v>0.2121</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="17" t="n">
-        <v>0.3333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3260,7 @@
         <v>23</v>
       </c>
       <c r="I87" s="17" t="n">
-        <v>0.5758</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3289,7 @@
         <v>25</v>
       </c>
       <c r="I88" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3318,7 @@
         <v>25</v>
       </c>
       <c r="I89" s="17" t="n">
-        <v>0.5152</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="17" t="n">
-        <v>0.303</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="I91" s="17" t="n">
-        <v>0.8485</v>
+        <v>84.85</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +3405,7 @@
         <v>25</v>
       </c>
       <c r="I92" s="17" t="n">
-        <v>0.9091</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="I93" s="17" t="n">
-        <v>0.7576</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="17" t="n">
-        <v>0.2121</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="I95" s="17" t="n">
-        <v>0.4848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,7 +3521,7 @@
         <v>25</v>
       </c>
       <c r="I96" s="17" t="n">
-        <v>0.5455</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="17" t="n">
-        <v>0.4545</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="I98" s="17" t="n">
-        <v>0.8182</v>
+        <v>81.82</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="I99" s="17" t="n">
-        <v>0.7273</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3637,7 @@
         <v>25</v>
       </c>
       <c r="I100" s="17" t="n">
-        <v>0.697</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="17" t="n">
-        <v>0.6061</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +3695,7 @@
         <v>25</v>
       </c>
       <c r="I102" s="17" t="n">
-        <v>0.697</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="17" t="n">
-        <v>0.4848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,7 +3782,7 @@
         <v>25</v>
       </c>
       <c r="I105" s="17" t="n">
-        <v>0.8182</v>
+        <v>81.82</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="17" t="n">
-        <v>0.4242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="17" t="n">
-        <v>0.4242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="17" t="n">
-        <v>0.6667</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,7 +3898,7 @@
         <v>25</v>
       </c>
       <c r="I109" s="17" t="n">
-        <v>0.7576</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3927,7 @@
         <v>25</v>
       </c>
       <c r="I110" s="17" t="n">
-        <v>0.8485</v>
+        <v>84.85</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="17" t="n">
-        <v>0.4242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,7 +3985,7 @@
         <v>25</v>
       </c>
       <c r="I112" s="17" t="n">
-        <v>0.8182</v>
+        <v>81.82</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4014,7 @@
         <v>25</v>
       </c>
       <c r="I113" s="17" t="n">
-        <v>0.697</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,7 +4043,7 @@
         <v>21</v>
       </c>
       <c r="I114" s="17" t="n">
-        <v>0.697</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="17" t="n">
-        <v>0.7576</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +4101,7 @@
         <v>25</v>
       </c>
       <c r="I116" s="17" t="n">
-        <v>0.9697</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="17" t="n">
-        <v>0.2727</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,7 +4159,7 @@
         <v>25</v>
       </c>
       <c r="I118" s="17" t="n">
-        <v>0.6061</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="I119" s="17" t="n">
-        <v>0.4545</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4217,7 @@
         <v>25</v>
       </c>
       <c r="I120" s="17" t="n">
-        <v>0.7879</v>
+        <v>78.79</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4246,7 @@
         <v>25</v>
       </c>
       <c r="I121" s="17" t="n">
-        <v>0.7273</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="17" t="n">
-        <v>0.3333</v>
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
   <si>
     <t xml:space="preserve">Mech 2nd A</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">Attend %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final</t>
   </si>
   <si>
     <t xml:space="preserve">AADITYA BENIWAL</t>
@@ -729,10 +732,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,8 +745,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="11" style="4" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,6 +762,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -791,13 +795,16 @@
       <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>220041700001</v>
@@ -823,13 +830,14 @@
       <c r="J3" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>220041700002</v>
@@ -855,13 +863,14 @@
       <c r="J4" s="15" t="n">
         <v>85.19</v>
       </c>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>220041700003</v>
@@ -887,13 +896,14 @@
       <c r="J5" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>220041700004</v>
@@ -919,13 +929,14 @@
       <c r="J6" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>220041700005</v>
@@ -951,13 +962,14 @@
       <c r="J7" s="15" t="n">
         <v>37.04</v>
       </c>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>220041700006</v>
@@ -983,13 +995,14 @@
       <c r="J8" s="15" t="n">
         <v>70.37</v>
       </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>220041700007</v>
@@ -998,7 +1011,7 @@
         <v>8.5</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="14" t="n">
         <v>12</v>
@@ -1015,13 +1028,14 @@
       <c r="J9" s="15" t="n">
         <v>59.26</v>
       </c>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>220041700008</v>
@@ -1047,13 +1061,14 @@
       <c r="J10" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>220041700009</v>
@@ -1079,13 +1094,14 @@
       <c r="J11" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>220041700010</v>
@@ -1111,25 +1127,26 @@
       <c r="J12" s="15" t="n">
         <v>59.26</v>
       </c>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>220041700011</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>8</v>
@@ -1143,25 +1160,26 @@
       <c r="J13" s="15" t="n">
         <v>37.04</v>
       </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>220041700012</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1175,13 +1193,14 @@
       <c r="J14" s="15" t="n">
         <v>22.22</v>
       </c>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>220041700013</v>
@@ -1190,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="14" t="n">
         <v>18</v>
@@ -1207,13 +1226,14 @@
       <c r="J15" s="15" t="n">
         <v>74.07</v>
       </c>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>220041700014</v>
@@ -1239,25 +1259,26 @@
       <c r="J16" s="15" t="n">
         <v>74.07</v>
       </c>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>220041700015</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1271,13 +1292,14 @@
       <c r="J17" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>220041700016</v>
@@ -1303,13 +1325,14 @@
       <c r="J18" s="15" t="n">
         <v>74.07</v>
       </c>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12" t="n">
         <v>220041700017</v>
@@ -1335,13 +1358,14 @@
       <c r="J19" s="15" t="n">
         <v>88.89</v>
       </c>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>220041700020</v>
@@ -1367,13 +1391,14 @@
       <c r="J20" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>220041700021</v>
@@ -1399,13 +1424,14 @@
       <c r="J21" s="15" t="n">
         <v>29.63</v>
       </c>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="n">
         <v>220041700022</v>
@@ -1431,13 +1457,14 @@
       <c r="J22" s="15" t="n">
         <v>85.19</v>
       </c>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="12" t="n">
         <v>220041700023</v>
@@ -1463,13 +1490,14 @@
       <c r="J23" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>220041700024</v>
@@ -1495,19 +1523,20 @@
       <c r="J24" s="15" t="n">
         <v>85.19</v>
       </c>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>220041700025</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="14" t="n">
         <v>4</v>
@@ -1527,13 +1556,14 @@
       <c r="J25" s="15" t="n">
         <v>48.15</v>
       </c>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>220041700026</v>
@@ -1559,13 +1589,14 @@
       <c r="J26" s="15" t="n">
         <v>48.15</v>
       </c>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>220041700027</v>
@@ -1591,13 +1622,14 @@
       <c r="J27" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>220041700028</v>
@@ -1623,13 +1655,14 @@
       <c r="J28" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>220041700029</v>
@@ -1655,25 +1688,26 @@
       <c r="J29" s="15" t="n">
         <v>59.26</v>
       </c>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>220041700030</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
@@ -1687,13 +1721,14 @@
       <c r="J30" s="15" t="n">
         <v>14.81</v>
       </c>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="12" t="n">
         <v>220041700031</v>
@@ -1719,25 +1754,26 @@
       <c r="J31" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>220041700032</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>0</v>
@@ -1751,19 +1787,20 @@
       <c r="J32" s="15" t="n">
         <v>11.11</v>
       </c>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="12" t="n">
         <v>220041700033</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="14" t="n">
         <v>13.5</v>
@@ -1783,13 +1820,14 @@
       <c r="J33" s="15" t="n">
         <v>59.26</v>
       </c>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>220041700034</v>
@@ -1815,13 +1853,14 @@
       <c r="J34" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>220041700035</v>
@@ -1847,13 +1886,14 @@
       <c r="J35" s="15" t="n">
         <v>96.3</v>
       </c>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>220041700036</v>
@@ -1879,13 +1919,14 @@
       <c r="J36" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>220041700037</v>
@@ -1911,13 +1952,14 @@
       <c r="J37" s="15" t="n">
         <v>62.96</v>
       </c>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>220041700038</v>
@@ -1943,19 +1985,20 @@
       <c r="J38" s="15" t="n">
         <v>74.07</v>
       </c>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>220041700039</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="14" t="n">
         <v>3</v>
@@ -1975,13 +2018,14 @@
       <c r="J39" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>220041700040</v>
@@ -2007,13 +2051,14 @@
       <c r="J40" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>220041700042</v>
@@ -2039,13 +2084,14 @@
       <c r="J41" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>220041700043</v>
@@ -2071,19 +2117,20 @@
       <c r="J42" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="12" t="n">
         <v>220041700044</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="14" t="n">
         <v>7</v>
@@ -2103,13 +2150,14 @@
       <c r="J43" s="15" t="n">
         <v>62.96</v>
       </c>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="12" t="n">
         <v>220041700045</v>
@@ -2135,19 +2183,20 @@
       <c r="J44" s="15" t="n">
         <v>55.56</v>
       </c>
+      <c r="K44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="12" t="n">
         <v>220041700046</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="14" t="n">
         <v>5</v>
@@ -2167,25 +2216,26 @@
       <c r="J45" s="15" t="n">
         <v>51.85</v>
       </c>
+      <c r="K45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="12" t="n">
         <v>220041700047</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0</v>
@@ -2199,19 +2249,20 @@
       <c r="J46" s="15" t="n">
         <v>7.41</v>
       </c>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="12" t="n">
         <v>220041700048</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="14" t="n">
         <v>1.5</v>
@@ -2220,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>9</v>
@@ -2231,13 +2282,14 @@
       <c r="J47" s="15" t="n">
         <v>18.52</v>
       </c>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>220041700049</v>
@@ -2263,25 +2315,26 @@
       <c r="J48" s="15" t="n">
         <v>70.37</v>
       </c>
+      <c r="K48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>220041700050</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>0</v>
@@ -2295,13 +2348,14 @@
       <c r="J49" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="K49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>220041700051</v>
@@ -2327,13 +2381,14 @@
       <c r="J50" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>220041700052</v>
@@ -2359,13 +2414,14 @@
       <c r="J51" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>220041700053</v>
@@ -2391,13 +2447,14 @@
       <c r="J52" s="15" t="n">
         <v>25.93</v>
       </c>
+      <c r="K52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>220041700054</v>
@@ -2423,13 +2480,14 @@
       <c r="J53" s="15" t="n">
         <v>88.89</v>
       </c>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>220041700055</v>
@@ -2444,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>0</v>
@@ -2455,13 +2513,14 @@
       <c r="J54" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>220041700056</v>
@@ -2487,13 +2546,14 @@
       <c r="J55" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>220041700057</v>
@@ -2519,13 +2579,14 @@
       <c r="J56" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>220041700058</v>
@@ -2551,13 +2612,14 @@
       <c r="J57" s="15" t="n">
         <v>55.56</v>
       </c>
+      <c r="K57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>220041700059</v>
@@ -2583,13 +2645,14 @@
       <c r="J58" s="15" t="n">
         <v>51.85</v>
       </c>
+      <c r="K58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>220041700060</v>
@@ -2615,13 +2678,14 @@
       <c r="J59" s="15" t="n">
         <v>77.78</v>
       </c>
+      <c r="K59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>220041700061</v>
@@ -2636,24 +2700,25 @@
         <v>15.5</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J60" s="15" t="n">
         <v>55.56</v>
       </c>
+      <c r="K60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>220041700063</v>
@@ -2668,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>0</v>
@@ -2679,13 +2744,14 @@
       <c r="J61" s="15" t="n">
         <v>81.48</v>
       </c>
+      <c r="K61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>220041700064</v>
@@ -2711,13 +2777,14 @@
       <c r="J62" s="15" t="n">
         <v>51.85</v>
       </c>
+      <c r="K62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>220041700065</v>
@@ -2743,19 +2810,20 @@
       <c r="J63" s="15" t="n">
         <v>70.37</v>
       </c>
+      <c r="K63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>220041700066</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" s="14" t="n">
         <v>9</v>
@@ -2775,13 +2843,14 @@
       <c r="J64" s="15" t="n">
         <v>74.07</v>
       </c>
+      <c r="K64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>220041700067</v>
@@ -2807,13 +2876,14 @@
       <c r="J65" s="15" t="n">
         <v>92.59</v>
       </c>
+      <c r="K65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>220041700068</v>
@@ -2839,13 +2909,14 @@
       <c r="J66" s="15" t="n">
         <v>60.61</v>
       </c>
+      <c r="K66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="12" t="n">
         <v>220041700069</v>
@@ -2871,13 +2942,14 @@
       <c r="J67" s="15" t="n">
         <v>57.58</v>
       </c>
+      <c r="K67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="12" t="n">
         <v>220041700070</v>
@@ -2903,13 +2975,14 @@
       <c r="J68" s="15" t="n">
         <v>78.79</v>
       </c>
+      <c r="K68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="12" t="n">
         <v>220041700071</v>
@@ -2935,13 +3008,14 @@
       <c r="J69" s="15" t="n">
         <v>100</v>
       </c>
+      <c r="K69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="12" t="n">
         <v>220041700072</v>
@@ -2967,13 +3041,14 @@
       <c r="J70" s="15" t="n">
         <v>48.48</v>
       </c>
+      <c r="K70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="12" t="n">
         <v>220041700073</v>
@@ -2999,19 +3074,20 @@
       <c r="J71" s="15" t="n">
         <v>57.58</v>
       </c>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>220041700074</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>12</v>
@@ -3031,13 +3107,14 @@
       <c r="J72" s="15" t="n">
         <v>57.58</v>
       </c>
+      <c r="K72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>220041700076</v>
@@ -3063,13 +3140,14 @@
       <c r="J73" s="15" t="n">
         <v>60.61</v>
       </c>
+      <c r="K73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>220041700077</v>
@@ -3095,13 +3173,14 @@
       <c r="J74" s="15" t="n">
         <v>78.79</v>
       </c>
+      <c r="K74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>220041700078</v>
@@ -3127,13 +3206,14 @@
       <c r="J75" s="15" t="n">
         <v>100</v>
       </c>
+      <c r="K75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>220041700079</v>
@@ -3159,13 +3239,14 @@
       <c r="J76" s="15" t="n">
         <v>78.79</v>
       </c>
+      <c r="K76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>220041700080</v>
@@ -3191,13 +3272,14 @@
       <c r="J77" s="15" t="n">
         <v>81.82</v>
       </c>
+      <c r="K77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>220041700081</v>
@@ -3223,13 +3305,14 @@
       <c r="J78" s="15" t="n">
         <v>63.64</v>
       </c>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="12" t="n">
         <v>220041700082</v>
@@ -3255,13 +3338,14 @@
       <c r="J79" s="15" t="n">
         <v>21.21</v>
       </c>
+      <c r="K79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="12" t="n">
         <v>220041700084</v>
@@ -3287,13 +3371,14 @@
       <c r="J80" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="12" t="n">
         <v>220041700085</v>
@@ -3319,13 +3404,14 @@
       <c r="J81" s="15" t="n">
         <v>57.58</v>
       </c>
+      <c r="K81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="12" t="n">
         <v>220041700086</v>
@@ -3351,13 +3437,14 @@
       <c r="J82" s="15" t="n">
         <v>75.76</v>
       </c>
+      <c r="K82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="12" t="n">
         <v>220041700087</v>
@@ -3383,13 +3470,14 @@
       <c r="J83" s="15" t="n">
         <v>30.3</v>
       </c>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>220041700088</v>
@@ -3415,13 +3503,14 @@
       <c r="J84" s="15" t="n">
         <v>45.45</v>
       </c>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>220041700089</v>
@@ -3447,13 +3536,14 @@
       <c r="J85" s="15" t="n">
         <v>21.21</v>
       </c>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>220041700090</v>
@@ -3479,13 +3569,14 @@
       <c r="J86" s="15" t="n">
         <v>33.33</v>
       </c>
+      <c r="K86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="12" t="n">
         <v>220041700091</v>
@@ -3511,13 +3602,14 @@
       <c r="J87" s="15" t="n">
         <v>57.58</v>
       </c>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="12" t="n">
         <v>220041700092</v>
@@ -3543,13 +3635,14 @@
       <c r="J88" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="12" t="n">
         <v>220041700096</v>
@@ -3575,13 +3668,14 @@
       <c r="J89" s="15" t="n">
         <v>51.52</v>
       </c>
+      <c r="K89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="12" t="n">
         <v>220041700097</v>
@@ -3607,13 +3701,14 @@
       <c r="J90" s="15" t="n">
         <v>30.3</v>
       </c>
+      <c r="K90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C91" s="12" t="n">
         <v>220041700098</v>
@@ -3639,13 +3734,14 @@
       <c r="J91" s="15" t="n">
         <v>84.85</v>
       </c>
+      <c r="K91" s="15"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" s="12" t="n">
         <v>220041700099</v>
@@ -3671,13 +3767,14 @@
       <c r="J92" s="15" t="n">
         <v>90.91</v>
       </c>
+      <c r="K92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" s="12" t="n">
         <v>220041700100</v>
@@ -3703,25 +3800,26 @@
       <c r="J93" s="15" t="n">
         <v>75.76</v>
       </c>
+      <c r="K93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C94" s="12" t="n">
         <v>220041700101</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>0</v>
@@ -3735,13 +3833,14 @@
       <c r="J94" s="15" t="n">
         <v>21.21</v>
       </c>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C95" s="12" t="n">
         <v>220041700102</v>
@@ -3767,13 +3866,14 @@
       <c r="J95" s="15" t="n">
         <v>48.48</v>
       </c>
+      <c r="K95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>220041700103</v>
@@ -3799,19 +3899,20 @@
       <c r="J96" s="15" t="n">
         <v>54.55</v>
       </c>
+      <c r="K96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C97" s="12" t="n">
         <v>220041700104</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E97" s="14" t="n">
         <v>12.5</v>
@@ -3831,13 +3932,14 @@
       <c r="J97" s="15" t="n">
         <v>45.45</v>
       </c>
+      <c r="K97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C98" s="12" t="n">
         <v>220041700105</v>
@@ -3863,19 +3965,20 @@
       <c r="J98" s="15" t="n">
         <v>81.82</v>
       </c>
+      <c r="K98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C99" s="12" t="n">
         <v>220041700106</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E99" s="14" t="n">
         <v>14.5</v>
@@ -3895,13 +3998,14 @@
       <c r="J99" s="15" t="n">
         <v>72.73</v>
       </c>
+      <c r="K99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>220041700107</v>
@@ -3927,13 +4031,14 @@
       <c r="J100" s="15" t="n">
         <v>69.7</v>
       </c>
+      <c r="K100" s="15"/>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>220041700108</v>
@@ -3959,13 +4064,14 @@
       <c r="J101" s="15" t="n">
         <v>60.61</v>
       </c>
+      <c r="K101" s="15"/>
     </row>
     <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C102" s="12" t="n">
         <v>220041700109</v>
@@ -3991,13 +4097,14 @@
       <c r="J102" s="15" t="n">
         <v>69.7</v>
       </c>
+      <c r="K102" s="15"/>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C103" s="12" t="n">
         <v>220041700110</v>
@@ -4023,13 +4130,14 @@
       <c r="J103" s="15" t="n">
         <v>48.48</v>
       </c>
+      <c r="K103" s="15"/>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="12" t="n">
         <v>220041700111</v>
@@ -4038,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>0</v>
@@ -4055,13 +4163,14 @@
       <c r="J104" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="K104" s="15"/>
     </row>
     <row r="105" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C105" s="12" t="n">
         <v>220041700112</v>
@@ -4087,13 +4196,14 @@
       <c r="J105" s="15" t="n">
         <v>81.82</v>
       </c>
+      <c r="K105" s="15"/>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="12" t="n">
         <v>220041700113</v>
@@ -4119,13 +4229,14 @@
       <c r="J106" s="15" t="n">
         <v>42.42</v>
       </c>
+      <c r="K106" s="15"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C107" s="12" t="n">
         <v>220041700115</v>
@@ -4151,19 +4262,20 @@
       <c r="J107" s="15" t="n">
         <v>42.42</v>
       </c>
+      <c r="K107" s="15"/>
     </row>
     <row r="108" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="12" t="n">
         <v>220041700116</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108" s="14" t="n">
         <v>15</v>
@@ -4183,13 +4295,14 @@
       <c r="J108" s="15" t="n">
         <v>66.67</v>
       </c>
+      <c r="K108" s="15"/>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C109" s="12" t="n">
         <v>220041700117</v>
@@ -4215,13 +4328,14 @@
       <c r="J109" s="15" t="n">
         <v>75.76</v>
       </c>
+      <c r="K109" s="15"/>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>220041700118</v>
@@ -4247,13 +4361,14 @@
       <c r="J110" s="15" t="n">
         <v>84.85</v>
       </c>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>220041700119</v>
@@ -4279,13 +4394,14 @@
       <c r="J111" s="15" t="n">
         <v>42.42</v>
       </c>
+      <c r="K111" s="15"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="12" t="n">
         <v>220041700121</v>
@@ -4311,13 +4427,14 @@
       <c r="J112" s="15" t="n">
         <v>81.82</v>
       </c>
+      <c r="K112" s="15"/>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C113" s="12" t="n">
         <v>220041700122</v>
@@ -4343,13 +4460,14 @@
       <c r="J113" s="15" t="n">
         <v>69.7</v>
       </c>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="12" t="n">
         <v>220041700123</v>
@@ -4375,19 +4493,20 @@
       <c r="J114" s="15" t="n">
         <v>69.7</v>
       </c>
+      <c r="K114" s="15"/>
     </row>
     <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="12" t="n">
         <v>220041700124</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E115" s="14" t="n">
         <v>14</v>
@@ -4407,13 +4526,14 @@
       <c r="J115" s="15" t="n">
         <v>75.76</v>
       </c>
+      <c r="K115" s="15"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" s="12" t="n">
         <v>220041700125</v>
@@ -4439,19 +4559,20 @@
       <c r="J116" s="15" t="n">
         <v>96.97</v>
       </c>
+      <c r="K116" s="15"/>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117" s="12" t="n">
         <v>220041700126</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117" s="14" t="n">
         <v>11</v>
@@ -4471,13 +4592,14 @@
       <c r="J117" s="15" t="n">
         <v>27.27</v>
       </c>
+      <c r="K117" s="15"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="12" t="n">
         <v>220041700130</v>
@@ -4503,13 +4625,14 @@
       <c r="J118" s="15" t="n">
         <v>60.61</v>
       </c>
+      <c r="K118" s="15"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119" s="12" t="n">
         <v>220041700131</v>
@@ -4535,13 +4658,14 @@
       <c r="J119" s="15" t="n">
         <v>45.45</v>
       </c>
+      <c r="K119" s="15"/>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>220041700132</v>
@@ -4567,13 +4691,14 @@
       <c r="J120" s="15" t="n">
         <v>78.79</v>
       </c>
+      <c r="K120" s="15"/>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>220041700133</v>
@@ -4599,13 +4724,14 @@
       <c r="J121" s="15" t="n">
         <v>72.73</v>
       </c>
+      <c r="K121" s="15"/>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="12" t="n">
         <v>220041700134</v>
@@ -4631,6 +4757,7 @@
       <c r="J122" s="15" t="n">
         <v>33.33</v>
       </c>
+      <c r="K122" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4683,7 +4810,7 @@
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -4700,10 +4827,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>220041700068</v>
@@ -4728,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>220041700069</v>
@@ -4745,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>220041700070</v>
@@ -4762,7 +4889,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>220041700071</v>
@@ -4779,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>220041700072</v>
@@ -4796,7 +4923,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>220041700073</v>
@@ -4813,13 +4940,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>220041700074</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>0</v>
@@ -4830,7 +4957,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>220041700076</v>
@@ -4847,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>220041700077</v>
@@ -4864,7 +4991,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>220041700078</v>
@@ -4881,7 +5008,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>220041700079</v>
@@ -4898,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>220041700080</v>
@@ -4915,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>220041700081</v>
@@ -4932,7 +5059,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>220041700082</v>
@@ -4949,7 +5076,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>220041700084</v>
@@ -4966,7 +5093,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>220041700085</v>
@@ -4983,7 +5110,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>220041700086</v>
@@ -5000,7 +5127,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>220041700087</v>
@@ -5017,7 +5144,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>220041700088</v>
@@ -5034,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>220041700089</v>
@@ -5051,7 +5178,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>220041700090</v>
@@ -5068,7 +5195,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>220041700091</v>
@@ -5085,7 +5212,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>220041700092</v>
@@ -5102,7 +5229,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>220041700096</v>
@@ -5119,7 +5246,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>220041700097</v>
@@ -5136,7 +5263,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>220041700098</v>
@@ -5153,7 +5280,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>220041700099</v>
@@ -5170,7 +5297,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>220041700100</v>
@@ -5187,13 +5314,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>220041700101</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0</v>
@@ -5204,7 +5331,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>220041700102</v>
@@ -5221,7 +5348,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>220041700103</v>
@@ -5238,13 +5365,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>220041700104</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
@@ -5255,7 +5382,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>220041700105</v>
@@ -5272,13 +5399,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>220041700106</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>0</v>
@@ -5289,7 +5416,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>220041700107</v>
@@ -5306,7 +5433,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>220041700108</v>
@@ -5323,7 +5450,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>220041700109</v>
@@ -5340,7 +5467,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>220041700110</v>
@@ -5357,7 +5484,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>220041700111</v>
@@ -5374,7 +5501,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>220041700112</v>
@@ -5391,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>220041700113</v>
@@ -5408,7 +5535,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>220041700115</v>
@@ -5425,13 +5552,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>220041700116</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>0</v>
@@ -5442,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>220041700117</v>
@@ -5459,7 +5586,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>220041700118</v>
@@ -5476,7 +5603,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>220041700119</v>
@@ -5493,7 +5620,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>220041700121</v>
@@ -5510,7 +5637,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>220041700122</v>
@@ -5527,7 +5654,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>220041700123</v>
@@ -5544,13 +5671,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>220041700124</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>0</v>
@@ -5561,7 +5688,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>220041700125</v>
@@ -5578,13 +5705,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>220041700126</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>0</v>
@@ -5595,7 +5722,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>220041700130</v>
@@ -5612,7 +5739,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>220041700131</v>
@@ -5629,7 +5756,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>220041700132</v>
@@ -5646,7 +5773,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>220041700133</v>
@@ -5663,7 +5790,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>220041700134</v>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -12,7 +12,7 @@
     <sheet name="SecB" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">SecA!$A$2:$C$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">SecA!$A$2:$C$63</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t xml:space="preserve">Mech 2nd A</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Attend %</t>
   </si>
   <si>
-    <t xml:space="preserve">Final</t>
+    <t xml:space="preserve">Final (40)</t>
   </si>
   <si>
     <t xml:space="preserve">AADITYA BENIWAL</t>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">LAKSHAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAL CHAND</t>
   </si>
   <si>
     <t xml:space="preserve">LALIT</t>
@@ -628,7 +625,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -663,6 +660,22 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -674,7 +687,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF9C6500"/>
@@ -732,10 +745,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K63" activeCellId="0" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,7 +777,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -830,7 +843,9 @@
       <c r="J3" s="15" t="n">
         <v>81.48</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="15" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -863,7 +878,9 @@
       <c r="J4" s="15" t="n">
         <v>85.19</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="15" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -896,7 +913,9 @@
       <c r="J5" s="15" t="n">
         <v>81.48</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -929,7 +948,9 @@
       <c r="J6" s="15" t="n">
         <v>92.59</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="15" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -962,7 +983,9 @@
       <c r="J7" s="15" t="n">
         <v>37.04</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -995,7 +1018,9 @@
       <c r="J8" s="15" t="n">
         <v>70.37</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -1028,7 +1053,9 @@
       <c r="J9" s="15" t="n">
         <v>59.26</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="15" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -1061,7 +1088,9 @@
       <c r="J10" s="15" t="n">
         <v>92.59</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -1094,7 +1123,9 @@
       <c r="J11" s="15" t="n">
         <v>81.48</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="15" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -1127,7 +1158,9 @@
       <c r="J12" s="15" t="n">
         <v>59.26</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="15" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -1160,7 +1193,9 @@
       <c r="J13" s="15" t="n">
         <v>37.04</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="15" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -1193,7 +1228,9 @@
       <c r="J14" s="15" t="n">
         <v>22.22</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -1226,7 +1263,9 @@
       <c r="J15" s="15" t="n">
         <v>74.07</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="15" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -1259,95 +1298,101 @@
       <c r="J16" s="15" t="n">
         <v>74.07</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>220041700015</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>18</v>
+        <v>220041700016</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>14</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15"/>
+        <v>74.07</v>
+      </c>
+      <c r="K17" s="15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>220041700016</v>
+        <v>220041700017</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" s="15" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>220041700020</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F18" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <v>74.07</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>220041700017</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="F19" s="14" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>18</v>
@@ -1356,127 +1401,135 @@
         <v>25</v>
       </c>
       <c r="J19" s="15" t="n">
-        <v>88.89</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81.48</v>
+      </c>
+      <c r="K19" s="15" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>220041700021</v>
+      </c>
+      <c r="D20" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>220041700022</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F21" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="C20" s="12" t="n">
-        <v>220041700020</v>
-      </c>
-      <c r="D20" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5" t="n">
+      <c r="G21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="I20" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" s="15" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>220041700021</v>
-      </c>
-      <c r="D21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J21" s="15" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85.19</v>
+      </c>
+      <c r="K21" s="15" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>220041700023</v>
+      </c>
+      <c r="D22" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>220041700022</v>
-      </c>
-      <c r="D22" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v>22</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>27</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>18</v>
-      </c>
       <c r="I22" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J22" s="15" t="n">
-        <v>85.19</v>
-      </c>
-      <c r="K22" s="15"/>
+        <v>92.59</v>
+      </c>
+      <c r="K22" s="15" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>220041700023</v>
+        <v>220041700024</v>
       </c>
       <c r="D23" s="13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>10</v>
@@ -1485,70 +1538,74 @@
         <v>21</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J23" s="15" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="K23" s="15"/>
+        <v>85.19</v>
+      </c>
+      <c r="K23" s="15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>220041700024</v>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>13</v>
+        <v>220041700025</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E24" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>220041700026</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F24" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <v>85.19</v>
-      </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="12" t="n">
-        <v>220041700025</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <v>4</v>
-      </c>
       <c r="F25" s="14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>25</v>
@@ -1556,251 +1613,267 @@
       <c r="J25" s="15" t="n">
         <v>48.15</v>
       </c>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>220041700026</v>
+        <v>220041700027</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E26" s="14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F26" s="14" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92.59</v>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>220041700027</v>
+        <v>220041700028</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" s="14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="K27" s="15"/>
+        <v>81.48</v>
+      </c>
+      <c r="K27" s="15" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>220041700028</v>
+        <v>220041700029</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E28" s="14" t="n">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59.26</v>
+      </c>
+      <c r="K28" s="15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>220041700029</v>
-      </c>
-      <c r="D29" s="13" t="n">
+        <v>220041700030</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K29" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E29" s="14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="15" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="K29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="n">
-        <v>220041700030</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>18</v>
+        <v>220041700031</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <v>10</v>
       </c>
       <c r="E30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>15.5</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="K30" s="15"/>
+        <v>81.48</v>
+      </c>
+      <c r="K30" s="15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="12" t="n">
-        <v>220041700031</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>10</v>
+        <v>220041700032</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>15.5</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K31" s="15"/>
+        <v>11.11</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="12" t="n">
-        <v>220041700032</v>
+        <v>220041700033</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>18</v>
+        <v>13.5</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>12</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J32" s="15" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="K32" s="15"/>
+        <v>59.26</v>
+      </c>
+      <c r="K32" s="15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="12" t="n">
-        <v>220041700033</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>18</v>
+        <v>220041700034</v>
+      </c>
+      <c r="D33" s="13" t="n">
+        <v>15.5</v>
       </c>
       <c r="E33" s="14" t="n">
         <v>13.5</v>
@@ -1809,238 +1882,252 @@
         <v>12</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J33" s="15" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="K33" s="15"/>
+        <v>77.78</v>
+      </c>
+      <c r="K33" s="15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="12" t="n">
-        <v>220041700034</v>
+        <v>220041700035</v>
       </c>
       <c r="D34" s="13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="E34" s="14" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="F34" s="14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J34" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K34" s="15"/>
+        <v>96.3</v>
+      </c>
+      <c r="K34" s="15" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="12" t="n">
-        <v>220041700035</v>
+        <v>220041700036</v>
       </c>
       <c r="D35" s="13" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F35" s="14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K35" s="15"/>
+        <v>77.78</v>
+      </c>
+      <c r="K35" s="15" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="12" t="n">
-        <v>220041700036</v>
+        <v>220041700037</v>
       </c>
       <c r="D36" s="13" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="E36" s="14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F36" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="K36" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="G36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J36" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="12" t="n">
-        <v>220041700037</v>
+        <v>220041700038</v>
       </c>
       <c r="D37" s="13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="14" t="n">
-        <v>12</v>
-      </c>
       <c r="G37" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>62.96</v>
-      </c>
-      <c r="K37" s="15"/>
+        <v>74.07</v>
+      </c>
+      <c r="K37" s="15" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="n">
-        <v>220041700038</v>
-      </c>
-      <c r="D38" s="13" t="n">
-        <v>13</v>
+        <v>220041700039</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E38" s="14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F38" s="14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="K38" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="I38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="15" t="n">
-        <v>74.07</v>
-      </c>
-      <c r="K38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="12" t="n">
-        <v>220041700039</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>18</v>
+        <v>220041700040</v>
+      </c>
+      <c r="D39" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="E39" s="14" t="n">
-        <v>3</v>
+        <v>14.5</v>
       </c>
       <c r="F39" s="14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" s="15" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="K39" s="15"/>
+        <v>92.59</v>
+      </c>
+      <c r="K39" s="15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12" t="n">
-        <v>220041700040</v>
+        <v>220041700042</v>
       </c>
       <c r="D40" s="13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" s="14" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>21</v>
@@ -2049,97 +2136,103 @@
         <v>25</v>
       </c>
       <c r="J40" s="15" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="K40" s="15"/>
+        <v>77.78</v>
+      </c>
+      <c r="K40" s="15" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="12" t="n">
-        <v>220041700042</v>
+        <v>220041700043</v>
       </c>
       <c r="D41" s="13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F41" s="14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K41" s="15"/>
+        <v>66.67</v>
+      </c>
+      <c r="K41" s="15" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="12" t="n">
-        <v>220041700043</v>
-      </c>
-      <c r="D42" s="13" t="n">
-        <v>15</v>
+        <v>220041700044</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E42" s="14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F42" s="14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" s="15" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="K42" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="I42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="15" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="K42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="12" t="n">
-        <v>220041700044</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>18</v>
+        <v>220041700045</v>
+      </c>
+      <c r="D43" s="13" t="n">
+        <v>10</v>
       </c>
       <c r="E43" s="14" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="F43" s="14" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>21</v>
@@ -2148,295 +2241,313 @@
         <v>25</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>62.96</v>
-      </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55.56</v>
+      </c>
+      <c r="K43" s="15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12" t="n">
-        <v>220041700045</v>
-      </c>
-      <c r="D44" s="13" t="n">
-        <v>10</v>
+        <v>220041700046</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E44" s="14" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F44" s="14" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H44" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="I44" s="5" t="n">
-        <v>25</v>
-      </c>
       <c r="J44" s="15" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51.85</v>
+      </c>
+      <c r="K44" s="15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="12" t="n">
-        <v>220041700046</v>
+        <v>220041700047</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F45" s="14" t="n">
-        <v>19</v>
+      <c r="E45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="K45" s="15"/>
+        <v>7.41</v>
+      </c>
+      <c r="K45" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="12" t="n">
-        <v>220041700047</v>
+        <v>220041700048</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>18</v>
+      <c r="E46" s="14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <v>12</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K46" s="15"/>
+        <v>18.52</v>
+      </c>
+      <c r="K46" s="15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="12" t="n">
-        <v>220041700048</v>
-      </c>
-      <c r="D47" s="16" t="s">
+        <v>220041700049</v>
+      </c>
+      <c r="D47" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E47" s="14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F47" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" s="5" t="n">
-        <v>9</v>
-      </c>
       <c r="I47" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J47" s="15" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="K47" s="15"/>
+        <v>70.37</v>
+      </c>
+      <c r="K47" s="15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12" t="n">
-        <v>220041700049</v>
+        <v>220041700051</v>
       </c>
       <c r="D48" s="13" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E48" s="14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="G48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H48" s="5" t="n">
-        <v>18</v>
-      </c>
       <c r="I48" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J48" s="15" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="K48" s="15"/>
+        <v>77.78</v>
+      </c>
+      <c r="K48" s="15" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="12" t="n">
-        <v>220041700050</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>18</v>
+        <v>220041700052</v>
+      </c>
+      <c r="D49" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <v>13</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15"/>
+        <v>77.78</v>
+      </c>
+      <c r="K49" s="15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="12" t="n">
-        <v>220041700051</v>
+        <v>220041700053</v>
       </c>
       <c r="D50" s="13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50" s="14" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="F50" s="14" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J50" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K50" s="15"/>
+        <v>25.93</v>
+      </c>
+      <c r="K50" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>220041700052</v>
+        <v>220041700054</v>
       </c>
       <c r="D51" s="13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E51" s="14" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="F51" s="14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J51" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K51" s="15"/>
+        <v>88.89</v>
+      </c>
+      <c r="K51" s="15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="12" t="n">
-        <v>220041700053</v>
+        <v>220041700055</v>
       </c>
       <c r="D52" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F52" s="14" t="n">
-        <v>1</v>
-      </c>
       <c r="G52" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>0</v>
@@ -2445,730 +2556,754 @@
         <v>0</v>
       </c>
       <c r="J52" s="15" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66.67</v>
+      </c>
+      <c r="K52" s="15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>220041700054</v>
+        <v>220041700056</v>
       </c>
       <c r="D53" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F53" s="14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I53" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J53" s="15" t="n">
-        <v>88.89</v>
-      </c>
-      <c r="K53" s="15"/>
+        <v>66.67</v>
+      </c>
+      <c r="K53" s="15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="12" t="n">
-        <v>220041700055</v>
+        <v>220041700057</v>
       </c>
       <c r="D54" s="13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E54" s="14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F54" s="14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I54" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J54" s="15" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77.78</v>
+      </c>
+      <c r="K54" s="15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>220041700056</v>
+        <v>220041700058</v>
       </c>
       <c r="D55" s="13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E55" s="14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F55" s="14" t="n">
         <v>10</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="K55" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="I55" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J55" s="15" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="K55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="12" t="n">
-        <v>220041700057</v>
+        <v>220041700059</v>
       </c>
       <c r="D56" s="13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" s="14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F56" s="14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I56" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K56" s="15"/>
+        <v>51.85</v>
+      </c>
+      <c r="K56" s="15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="12" t="n">
-        <v>220041700058</v>
+        <v>220041700060</v>
       </c>
       <c r="D57" s="13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E57" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F57" s="14" t="n">
-        <v>10</v>
-      </c>
       <c r="G57" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J57" s="15" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="K57" s="15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="12" t="n">
+        <v>220041700061</v>
+      </c>
+      <c r="D58" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J58" s="15" t="n">
         <v>55.56</v>
       </c>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="12" t="n">
-        <v>220041700059</v>
-      </c>
-      <c r="D58" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E58" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F58" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="15" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="12" t="n">
-        <v>220041700060</v>
+        <v>220041700063</v>
       </c>
       <c r="D59" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F59" s="14" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J59" s="15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81.48</v>
+      </c>
+      <c r="K59" s="15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="12" t="n">
-        <v>220041700061</v>
+        <v>220041700064</v>
       </c>
       <c r="D60" s="13" t="n">
         <v>6</v>
       </c>
       <c r="E60" s="14" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="F60" s="14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J60" s="15" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51.85</v>
+      </c>
+      <c r="K60" s="15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="12" t="n">
-        <v>220041700063</v>
+        <v>220041700065</v>
       </c>
       <c r="D61" s="13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E61" s="14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F61" s="14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J61" s="15" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="K61" s="15"/>
+        <v>70.37</v>
+      </c>
+      <c r="K61" s="15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" s="12" t="n">
-        <v>220041700064</v>
-      </c>
-      <c r="D62" s="13" t="n">
-        <v>6</v>
+        <v>220041700066</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E62" s="14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F62" s="14" t="n">
         <v>14</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I62" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J62" s="15" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="K62" s="15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="12" t="n">
+        <v>220041700067</v>
+      </c>
+      <c r="D63" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="J62" s="15" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="12" t="n">
-        <v>220041700065</v>
-      </c>
-      <c r="D63" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E63" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F63" s="14" t="n">
-        <v>10</v>
-      </c>
       <c r="G63" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J63" s="15" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="K63" s="15"/>
+        <v>92.59</v>
+      </c>
+      <c r="K63" s="15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" s="12" t="n">
-        <v>220041700066</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>18</v>
+        <v>220041700068</v>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>14</v>
       </c>
       <c r="E64" s="14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" s="14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J64" s="15" t="n">
-        <v>74.07</v>
+        <v>60.61</v>
       </c>
       <c r="K64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" s="12" t="n">
-        <v>220041700067</v>
-      </c>
-      <c r="D65" s="13" t="n">
-        <v>21</v>
+        <v>220041700069</v>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>13</v>
       </c>
       <c r="E65" s="14" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="F65" s="14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J65" s="15" t="n">
-        <v>92.59</v>
+        <v>57.58</v>
       </c>
       <c r="K65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" s="12" t="n">
-        <v>220041700068</v>
+        <v>220041700070</v>
       </c>
       <c r="D66" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F66" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E66" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F66" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H66" s="5" t="n">
-        <v>10</v>
-      </c>
       <c r="I66" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J66" s="15" t="n">
-        <v>60.61</v>
+        <v>78.79</v>
       </c>
       <c r="K66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" s="12" t="n">
-        <v>220041700069</v>
+        <v>220041700071</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E67" s="14" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="F67" s="14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I67" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J67" s="15" t="n">
-        <v>57.58</v>
+        <v>100</v>
       </c>
       <c r="K67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="12" t="n">
-        <v>220041700070</v>
+        <v>220041700072</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E68" s="14" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="F68" s="14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J68" s="15" t="n">
-        <v>78.79</v>
+        <v>48.48</v>
       </c>
       <c r="K68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" s="12" t="n">
-        <v>220041700071</v>
+        <v>220041700073</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E69" s="14" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="14" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I69" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J69" s="15" t="n">
-        <v>100</v>
+        <v>57.58</v>
       </c>
       <c r="K69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="12" t="n">
-        <v>220041700072</v>
-      </c>
-      <c r="D70" s="5" t="n">
-        <v>10</v>
+        <v>220041700074</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E70" s="14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="F70" s="14" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I70" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J70" s="15" t="n">
-        <v>48.48</v>
+        <v>57.58</v>
       </c>
       <c r="K70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="12" t="n">
-        <v>220041700073</v>
+        <v>220041700076</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E71" s="14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F71" s="14" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I71" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J71" s="15" t="n">
-        <v>57.58</v>
+        <v>60.61</v>
       </c>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="12" t="n">
-        <v>220041700074</v>
-      </c>
-      <c r="D72" s="16" t="s">
+        <v>220041700077</v>
+      </c>
+      <c r="D72" s="5" t="n">
         <v>18</v>
       </c>
       <c r="E72" s="14" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="F72" s="14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G72" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H72" s="5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I72" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>57.58</v>
+        <v>78.79</v>
       </c>
       <c r="K72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="12" t="n">
-        <v>220041700076</v>
+        <v>220041700078</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E73" s="14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" s="14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G73" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H73" s="5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I73" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J73" s="15" t="n">
-        <v>60.61</v>
+        <v>100</v>
       </c>
       <c r="K73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="12" t="n">
-        <v>220041700077</v>
+        <v>220041700079</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="E74" s="14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="F74" s="14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H74" s="5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I74" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J74" s="15" t="n">
         <v>78.79</v>
@@ -3177,319 +3312,319 @@
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="12" t="n">
-        <v>220041700078</v>
+        <v>220041700080</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E75" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F75" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="15" t="n">
+        <v>81.82</v>
+      </c>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="12" t="n">
+        <v>220041700081</v>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E76" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F76" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F75" s="14" t="n">
-        <v>23</v>
-      </c>
-      <c r="G75" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H75" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="I75" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J75" s="15" t="n">
-        <v>100</v>
-      </c>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="12" t="n">
-        <v>220041700079</v>
-      </c>
-      <c r="D76" s="5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E76" s="14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F76" s="14" t="n">
-        <v>15</v>
-      </c>
       <c r="G76" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I76" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J76" s="15" t="n">
-        <v>78.79</v>
+        <v>63.64</v>
       </c>
       <c r="K76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="12" t="n">
-        <v>220041700080</v>
+        <v>220041700082</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" s="14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F77" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="15" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="12" t="n">
+        <v>220041700084</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E78" s="14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F78" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="F77" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="G77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I77" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="15" t="n">
-        <v>81.82</v>
-      </c>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="12" t="n">
-        <v>220041700081</v>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E78" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F78" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="G78" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J78" s="15" t="n">
-        <v>63.64</v>
+        <v>66.67</v>
       </c>
       <c r="K78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="12" t="n">
-        <v>220041700082</v>
+        <v>220041700085</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E79" s="14" t="n">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="F79" s="14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G79" s="5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J79" s="15" t="n">
-        <v>21.21</v>
+        <v>57.58</v>
       </c>
       <c r="K79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="12" t="n">
-        <v>220041700084</v>
+        <v>220041700086</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>21.5</v>
+        <v>14</v>
       </c>
       <c r="E80" s="14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="F80" s="14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J80" s="15" t="n">
-        <v>66.67</v>
+        <v>75.76</v>
       </c>
       <c r="K80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="12" t="n">
-        <v>220041700085</v>
+        <v>220041700087</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="E81" s="14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="F81" s="14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G81" s="5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H81" s="5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I81" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J81" s="15" t="n">
-        <v>57.58</v>
+        <v>30.3</v>
       </c>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="12" t="n">
-        <v>220041700086</v>
+        <v>220041700088</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E82" s="14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F82" s="14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I82" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J82" s="15" t="n">
-        <v>75.76</v>
+        <v>45.45</v>
       </c>
       <c r="K82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="12" t="n">
-        <v>220041700087</v>
+        <v>220041700089</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E83" s="14" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="F83" s="14" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I83" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J83" s="15" t="n">
-        <v>30.3</v>
+        <v>21.21</v>
       </c>
       <c r="K83" s="15"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="12" t="n">
-        <v>220041700088</v>
+        <v>220041700090</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F84" s="14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>0</v>
@@ -3501,61 +3636,61 @@
         <v>0</v>
       </c>
       <c r="J84" s="15" t="n">
-        <v>45.45</v>
+        <v>33.33</v>
       </c>
       <c r="K84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="C85" s="12" t="n">
-        <v>220041700089</v>
+        <v>220041700091</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E85" s="14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F85" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G85" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I85" s="5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J85" s="15" t="n">
-        <v>21.21</v>
+        <v>57.58</v>
       </c>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="12" t="n">
-        <v>220041700090</v>
+        <v>220041700092</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E86" s="14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="F86" s="14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>0</v>
@@ -3564,64 +3699,64 @@
         <v>0</v>
       </c>
       <c r="I86" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J86" s="15" t="n">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
       <c r="K86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="C87" s="12" t="n">
-        <v>220041700091</v>
+        <v>220041700096</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E87" s="14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F87" s="14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G87" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" s="5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I87" s="5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J87" s="15" t="n">
-        <v>57.58</v>
+        <v>51.52</v>
       </c>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="12" t="n">
-        <v>220041700092</v>
+        <v>220041700097</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" s="14" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="F88" s="14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>0</v>
@@ -3630,397 +3765,397 @@
         <v>0</v>
       </c>
       <c r="I88" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J88" s="15" t="n">
-        <v>66.67</v>
+        <v>30.3</v>
       </c>
       <c r="K88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="12" t="n">
-        <v>220041700096</v>
+        <v>220041700098</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>20</v>
+        <v>24.5</v>
       </c>
       <c r="E89" s="14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F89" s="14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G89" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H89" s="5" t="n">
         <v>16</v>
       </c>
       <c r="I89" s="5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J89" s="15" t="n">
-        <v>51.52</v>
+        <v>84.85</v>
       </c>
       <c r="K89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" s="12" t="n">
-        <v>220041700097</v>
+        <v>220041700099</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E90" s="14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F90" s="14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G90" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H90" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I90" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J90" s="15" t="n">
-        <v>30.3</v>
+        <v>90.91</v>
       </c>
       <c r="K90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" s="12" t="n">
-        <v>220041700098</v>
+        <v>220041700100</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="E91" s="14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F91" s="14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H91" s="5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I91" s="5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J91" s="15" t="n">
-        <v>84.85</v>
+        <v>75.76</v>
       </c>
       <c r="K91" s="15"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" s="12" t="n">
-        <v>220041700099</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E92" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F92" s="14" t="n">
-        <v>26</v>
+        <v>220041700101</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G92" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H92" s="5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I92" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J92" s="15" t="n">
-        <v>90.91</v>
+        <v>21.21</v>
       </c>
       <c r="K92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" s="12" t="n">
-        <v>220041700100</v>
+        <v>220041700102</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E93" s="14" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F93" s="14" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H93" s="5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I93" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J93" s="15" t="n">
-        <v>75.76</v>
+        <v>48.48</v>
       </c>
       <c r="K93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C94" s="12" t="n">
-        <v>220041700101</v>
-      </c>
-      <c r="D94" s="16" t="s">
+        <v>220041700103</v>
+      </c>
+      <c r="D94" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>18</v>
+      <c r="E94" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" s="14" t="n">
+        <v>22</v>
       </c>
       <c r="G94" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H94" s="5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I94" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J94" s="15" t="n">
-        <v>21.21</v>
+        <v>54.55</v>
       </c>
       <c r="K94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C95" s="12" t="n">
-        <v>220041700102</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>5</v>
+        <v>220041700104</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E95" s="14" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F95" s="14" t="n">
         <v>12</v>
       </c>
       <c r="G95" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H95" s="5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I95" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J95" s="15" t="n">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="K95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C96" s="12" t="n">
-        <v>220041700103</v>
+        <v>220041700105</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E96" s="14" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F96" s="14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H96" s="5" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I96" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J96" s="15" t="n">
-        <v>54.55</v>
+        <v>81.82</v>
       </c>
       <c r="K96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" s="12" t="n">
-        <v>220041700104</v>
+        <v>220041700106</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="14" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="F97" s="14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H97" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I97" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J97" s="15" t="n">
-        <v>45.45</v>
+        <v>72.73</v>
       </c>
       <c r="K97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C98" s="12" t="n">
-        <v>220041700105</v>
+        <v>220041700107</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" s="14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F98" s="14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G98" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H98" s="5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I98" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J98" s="15" t="n">
-        <v>81.82</v>
+        <v>69.7</v>
       </c>
       <c r="K98" s="15"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="12" t="n">
+        <v>220041700108</v>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="15" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="12" t="n">
-        <v>220041700106</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F99" s="14" t="n">
-        <v>23</v>
-      </c>
-      <c r="G99" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J99" s="15" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="C100" s="12" t="n">
-        <v>220041700107</v>
+        <v>220041700109</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E100" s="14" t="n">
-        <v>13</v>
+        <v>23.5</v>
       </c>
       <c r="F100" s="14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G100" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H100" s="5" t="n">
         <v>22</v>
@@ -4035,22 +4170,22 @@
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="12" t="n">
-        <v>220041700108</v>
+        <v>220041700110</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E101" s="14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F101" s="14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>0</v>
@@ -4062,160 +4197,160 @@
         <v>0</v>
       </c>
       <c r="J101" s="15" t="n">
-        <v>60.61</v>
+        <v>48.48</v>
       </c>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C102" s="12" t="n">
-        <v>220041700109</v>
+        <v>220041700111</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E102" s="14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F102" s="14" t="n">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G102" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H102" s="5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I102" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J102" s="15" t="n">
-        <v>69.7</v>
+        <v>0</v>
       </c>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C103" s="12" t="n">
-        <v>220041700110</v>
+        <v>220041700112</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E103" s="14" t="n">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="F103" s="14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G103" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H103" s="5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I103" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J103" s="15" t="n">
-        <v>48.48</v>
+        <v>81.82</v>
       </c>
       <c r="K103" s="15"/>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="12" t="n">
+        <v>220041700113</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="K104" s="15"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="12" t="n">
+        <v>220041700115</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E105" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F105" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="15" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="12" t="n">
-        <v>220041700111</v>
-      </c>
-      <c r="D104" s="5" t="n">
+      <c r="C106" s="12" t="n">
+        <v>220041700116</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="E104" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" s="12" t="n">
-        <v>220041700112</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E105" s="14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F105" s="14" t="n">
-        <v>19</v>
-      </c>
-      <c r="G105" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H105" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J105" s="15" t="n">
-        <v>81.82</v>
-      </c>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C106" s="12" t="n">
-        <v>220041700113</v>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E106" s="14" t="n">
-        <v>5</v>
-      </c>
       <c r="F106" s="14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>0</v>
@@ -4227,543 +4362,479 @@
         <v>0</v>
       </c>
       <c r="J106" s="15" t="n">
-        <v>42.42</v>
+        <v>66.67</v>
       </c>
       <c r="K106" s="15"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="12" t="n">
-        <v>220041700115</v>
+        <v>220041700117</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E107" s="14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F107" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="G107" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F107" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="G107" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J107" s="15" t="n">
-        <v>42.42</v>
+        <v>75.76</v>
       </c>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C108" s="12" t="n">
-        <v>220041700116</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>18</v>
+        <v>220041700118</v>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>19</v>
       </c>
       <c r="E108" s="14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F108" s="14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G108" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H108" s="5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I108" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J108" s="15" t="n">
-        <v>66.67</v>
+        <v>84.85</v>
       </c>
       <c r="K108" s="15"/>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="12" t="n">
-        <v>220041700117</v>
+        <v>220041700119</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E109" s="14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="F109" s="14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H109" s="5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I109" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J109" s="15" t="n">
-        <v>75.76</v>
+        <v>42.42</v>
       </c>
       <c r="K109" s="15"/>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C110" s="12" t="n">
-        <v>220041700118</v>
+        <v>220041700121</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E110" s="14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="F110" s="14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H110" s="5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I110" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J110" s="15" t="n">
-        <v>84.85</v>
+        <v>81.82</v>
       </c>
       <c r="K110" s="15"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="12" t="n">
-        <v>220041700119</v>
+        <v>220041700122</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E111" s="14" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="F111" s="14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H111" s="5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I111" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J111" s="15" t="n">
-        <v>42.42</v>
+        <v>69.7</v>
       </c>
       <c r="K111" s="15"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="12" t="n">
-        <v>220041700121</v>
+        <v>220041700123</v>
       </c>
       <c r="D112" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E112" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F112" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H112" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E112" s="14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F112" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="G112" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H112" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="I112" s="5" t="n">
-        <v>25</v>
-      </c>
       <c r="J112" s="15" t="n">
-        <v>81.82</v>
+        <v>69.7</v>
       </c>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C113" s="12" t="n">
-        <v>220041700122</v>
-      </c>
-      <c r="D113" s="5" t="n">
-        <v>16</v>
+        <v>220041700124</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E113" s="14" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="F113" s="14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H113" s="5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I113" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J113" s="15" t="n">
-        <v>69.7</v>
+        <v>75.76</v>
       </c>
       <c r="K113" s="15"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C114" s="12" t="n">
-        <v>220041700123</v>
+        <v>220041700125</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E114" s="14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F114" s="14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G114" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H114" s="5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I114" s="5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J114" s="15" t="n">
-        <v>69.7</v>
+        <v>96.97</v>
       </c>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" s="12" t="n">
-        <v>220041700124</v>
+        <v>220041700126</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F115" s="14" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H115" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I115" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J115" s="15" t="n">
-        <v>75.76</v>
+        <v>27.27</v>
       </c>
       <c r="K115" s="15"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="12" t="n">
-        <v>220041700125</v>
+        <v>220041700130</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E116" s="14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F116" s="14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" s="5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H116" s="5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I116" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J116" s="15" t="n">
-        <v>96.97</v>
+        <v>60.61</v>
       </c>
       <c r="K116" s="15"/>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C117" s="12" t="n">
-        <v>220041700126</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>18</v>
+        <v>220041700131</v>
+      </c>
+      <c r="D117" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="E117" s="14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F117" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H117" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I117" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J117" s="15" t="n">
-        <v>27.27</v>
+        <v>45.45</v>
       </c>
       <c r="K117" s="15"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C118" s="12" t="n">
-        <v>220041700130</v>
+        <v>220041700132</v>
       </c>
       <c r="D118" s="5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="E118" s="14" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="F118" s="14" t="n">
         <v>14</v>
       </c>
       <c r="G118" s="5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H118" s="5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I118" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J118" s="15" t="n">
-        <v>60.61</v>
+        <v>78.79</v>
       </c>
       <c r="K118" s="15"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C119" s="12" t="n">
-        <v>220041700131</v>
+        <v>220041700133</v>
       </c>
       <c r="D119" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E119" s="14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F119" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H119" s="5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I119" s="5" t="n">
         <v>25</v>
       </c>
       <c r="J119" s="15" t="n">
-        <v>45.45</v>
+        <v>72.73</v>
       </c>
       <c r="K119" s="15"/>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="12" t="n">
-        <v>220041700132</v>
+        <v>220041700134</v>
       </c>
       <c r="D120" s="5" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="E120" s="14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="F120" s="14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G120" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H120" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I120" s="5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J120" s="15" t="n">
-        <v>78.79</v>
+        <v>33.33</v>
       </c>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="12" t="n">
-        <v>220041700133</v>
-      </c>
-      <c r="D121" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E121" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F121" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G121" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H121" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="I121" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J121" s="15" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="K121" s="15"/>
-    </row>
-    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C122" s="12" t="n">
-        <v>220041700134</v>
-      </c>
-      <c r="D122" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" s="14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F122" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="G122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="15" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="K122" s="15"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D65">
+  <conditionalFormatting sqref="D3:D63">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("A",D3)))</formula>
     </cfRule>
@@ -4771,12 +4842,17 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D122">
+  <conditionalFormatting sqref="D64:D120">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("A",D66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",D64)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4810,7 +4886,7 @@
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -4827,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="23" t="n">
         <v>220041700068</v>
@@ -4855,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="23" t="n">
         <v>220041700069</v>
@@ -4872,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="23" t="n">
         <v>220041700070</v>
@@ -4889,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="23" t="n">
         <v>220041700071</v>
@@ -4906,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="23" t="n">
         <v>220041700072</v>
@@ -4923,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="23" t="n">
         <v>220041700073</v>
@@ -4940,7 +5016,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="23" t="n">
         <v>220041700074</v>
@@ -4957,7 +5033,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>220041700076</v>
@@ -4974,7 +5050,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>220041700077</v>
@@ -4991,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>220041700078</v>
@@ -5008,7 +5084,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>220041700079</v>
@@ -5025,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="23" t="n">
         <v>220041700080</v>
@@ -5042,7 +5118,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="23" t="n">
         <v>220041700081</v>
@@ -5059,7 +5135,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="23" t="n">
         <v>220041700082</v>
@@ -5076,7 +5152,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="23" t="n">
         <v>220041700084</v>
@@ -5093,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="23" t="n">
         <v>220041700085</v>
@@ -5110,7 +5186,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="23" t="n">
         <v>220041700086</v>
@@ -5127,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="23" t="n">
         <v>220041700087</v>
@@ -5144,7 +5220,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="23" t="n">
         <v>220041700088</v>
@@ -5161,7 +5237,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="23" t="n">
         <v>220041700089</v>
@@ -5178,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="23" t="n">
         <v>220041700090</v>
@@ -5195,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="23" t="n">
         <v>220041700091</v>
@@ -5212,7 +5288,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="23" t="n">
         <v>220041700092</v>
@@ -5229,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="23" t="n">
         <v>220041700096</v>
@@ -5246,7 +5322,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="23" t="n">
         <v>220041700097</v>
@@ -5263,7 +5339,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="23" t="n">
         <v>220041700098</v>
@@ -5280,7 +5356,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="23" t="n">
         <v>220041700099</v>
@@ -5297,7 +5373,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="23" t="n">
         <v>220041700100</v>
@@ -5314,7 +5390,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="23" t="n">
         <v>220041700101</v>
@@ -5331,7 +5407,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>220041700102</v>
@@ -5348,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>220041700103</v>
@@ -5365,7 +5441,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>220041700104</v>
@@ -5382,7 +5458,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>220041700105</v>
@@ -5399,7 +5475,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>220041700106</v>
@@ -5416,7 +5492,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>220041700107</v>
@@ -5433,7 +5509,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>220041700108</v>
@@ -5450,7 +5526,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>220041700109</v>
@@ -5467,7 +5543,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>220041700110</v>
@@ -5484,7 +5560,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>220041700111</v>
@@ -5501,7 +5577,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>220041700112</v>
@@ -5518,7 +5594,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>220041700113</v>
@@ -5535,7 +5611,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>220041700115</v>
@@ -5552,7 +5628,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>220041700116</v>
@@ -5569,7 +5645,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>220041700117</v>
@@ -5586,7 +5662,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>220041700118</v>
@@ -5603,7 +5679,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>220041700119</v>
@@ -5620,7 +5696,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>220041700121</v>
@@ -5637,7 +5713,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>220041700122</v>
@@ -5654,7 +5730,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>220041700123</v>
@@ -5671,7 +5747,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>220041700124</v>
@@ -5688,7 +5764,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>220041700125</v>
@@ -5705,7 +5781,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>220041700126</v>
@@ -5722,7 +5798,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>220041700130</v>
@@ -5739,7 +5815,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>220041700131</v>
@@ -5756,7 +5832,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>220041700132</v>
@@ -5773,7 +5849,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>220041700133</v>
@@ -5790,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>220041700134</v>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -540,10 +540,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -590,6 +586,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -747,8 +747,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K63" activeCellId="0" sqref="K63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,41 +774,41 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -816,19 +816,19 @@
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>220041700001</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="13" t="n">
         <v>28</v>
       </c>
       <c r="G3" s="5" t="n">
@@ -840,10 +840,10 @@
       <c r="I3" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" s="14" t="n">
         <v>33</v>
       </c>
     </row>
@@ -851,19 +851,19 @@
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>220041700002</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="13" t="n">
         <v>16.5</v>
       </c>
       <c r="G4" s="5" t="n">
@@ -875,10 +875,10 @@
       <c r="I4" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="14" t="n">
         <v>85.19</v>
       </c>
-      <c r="K4" s="15" t="n">
+      <c r="K4" s="14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -886,19 +886,19 @@
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <v>220041700003</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14" t="n">
+      <c r="E5" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13" t="n">
         <v>19.5</v>
       </c>
       <c r="G5" s="5" t="n">
@@ -910,10 +910,10 @@
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="14" t="n">
         <v>27</v>
       </c>
     </row>
@@ -921,19 +921,19 @@
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <v>220041700004</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="13" t="n">
         <v>24.5</v>
       </c>
       <c r="G6" s="5" t="n">
@@ -945,10 +945,10 @@
       <c r="I6" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J6" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K6" s="15" t="n">
+      <c r="K6" s="14" t="n">
         <v>31</v>
       </c>
     </row>
@@ -956,19 +956,19 @@
       <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <v>220041700005</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="13" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="n">
@@ -980,10 +980,10 @@
       <c r="I7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="14" t="n">
         <v>37.04</v>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="K7" s="14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -991,19 +991,19 @@
       <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="11" t="n">
         <v>220041700006</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="13" t="n">
         <v>21</v>
       </c>
       <c r="G8" s="5" t="n">
@@ -1015,10 +1015,10 @@
       <c r="I8" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J8" s="15" t="n">
+      <c r="J8" s="14" t="n">
         <v>70.37</v>
       </c>
-      <c r="K8" s="15" t="n">
+      <c r="K8" s="14" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1026,19 +1026,19 @@
       <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="11" t="n">
         <v>220041700007</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>8.5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="n">
@@ -1050,10 +1050,10 @@
       <c r="I9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="14" t="n">
         <v>59.26</v>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K9" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1061,19 +1061,19 @@
       <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="11" t="n">
         <v>220041700008</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="n">
@@ -1085,10 +1085,10 @@
       <c r="I10" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1096,19 +1096,19 @@
       <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="11" t="n">
         <v>220041700009</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="E11" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14" t="n">
+      <c r="E11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G11" s="5" t="n">
@@ -1120,10 +1120,10 @@
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" s="14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1131,19 +1131,19 @@
       <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="11" t="n">
         <v>220041700010</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>10.5</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="n">
@@ -1155,10 +1155,10 @@
       <c r="I12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="15" t="n">
+      <c r="J12" s="14" t="n">
         <v>59.26</v>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1166,19 +1166,19 @@
       <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="11" t="n">
         <v>220041700011</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="5" t="n">
@@ -1190,10 +1190,10 @@
       <c r="I13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="n">
+      <c r="J13" s="14" t="n">
         <v>37.04</v>
       </c>
-      <c r="K13" s="15" t="n">
+      <c r="K13" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1201,19 +1201,19 @@
       <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="11" t="n">
         <v>220041700012</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="5" t="n">
@@ -1225,10 +1225,10 @@
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="n">
+      <c r="J14" s="14" t="n">
         <v>22.22</v>
       </c>
-      <c r="K14" s="15" t="n">
+      <c r="K14" s="14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1236,19 +1236,19 @@
       <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="11" t="n">
         <v>220041700013</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="13" t="n">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="n">
@@ -1260,10 +1260,10 @@
       <c r="I15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J15" s="15" t="n">
+      <c r="J15" s="14" t="n">
         <v>74.07</v>
       </c>
-      <c r="K15" s="15" t="n">
+      <c r="K15" s="14" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1271,19 +1271,19 @@
       <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="11" t="n">
         <v>220041700014</v>
       </c>
-      <c r="D16" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="n">
+      <c r="D16" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G16" s="5" t="n">
@@ -1295,10 +1295,10 @@
       <c r="I16" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J16" s="15" t="n">
+      <c r="J16" s="14" t="n">
         <v>74.07</v>
       </c>
-      <c r="K16" s="15" t="n">
+      <c r="K16" s="14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1306,19 +1306,19 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="n">
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <v>220041700016</v>
       </c>
-      <c r="D17" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14" t="n">
+      <c r="D17" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="n">
@@ -1330,10 +1330,10 @@
       <c r="I17" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="14" t="n">
         <v>74.07</v>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" s="14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1341,19 +1341,19 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="11" t="n">
         <v>220041700017</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="13" t="n">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="n">
@@ -1365,10 +1365,10 @@
       <c r="I18" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J18" s="15" t="n">
+      <c r="J18" s="14" t="n">
         <v>88.89</v>
       </c>
-      <c r="K18" s="15" t="n">
+      <c r="K18" s="14" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1376,19 +1376,19 @@
       <c r="A19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="11" t="n">
         <v>220041700020</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F19" s="14" t="n">
+      <c r="F19" s="13" t="n">
         <v>21.5</v>
       </c>
       <c r="G19" s="5" t="n">
@@ -1400,10 +1400,10 @@
       <c r="I19" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J19" s="15" t="n">
+      <c r="J19" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K19" s="15" t="n">
+      <c r="K19" s="14" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1411,19 +1411,19 @@
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="11" t="n">
         <v>220041700021</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>11.5</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="13" t="n">
         <v>5.5</v>
       </c>
       <c r="G20" s="5" t="n">
@@ -1435,10 +1435,10 @@
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="15" t="n">
+      <c r="J20" s="14" t="n">
         <v>29.63</v>
       </c>
-      <c r="K20" s="15" t="n">
+      <c r="K20" s="14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="11" t="n">
         <v>220041700022</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="13" t="n">
         <v>27</v>
       </c>
       <c r="G21" s="5" t="n">
@@ -1470,10 +1470,10 @@
       <c r="I21" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J21" s="15" t="n">
+      <c r="J21" s="14" t="n">
         <v>85.19</v>
       </c>
-      <c r="K21" s="15" t="n">
+      <c r="K21" s="14" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1481,19 +1481,19 @@
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="11" t="n">
         <v>220041700023</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F22" s="14" t="n">
+      <c r="F22" s="13" t="n">
         <v>26.5</v>
       </c>
       <c r="G22" s="5" t="n">
@@ -1505,10 +1505,10 @@
       <c r="I22" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J22" s="15" t="n">
+      <c r="J22" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K22" s="15" t="n">
+      <c r="K22" s="14" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1516,19 +1516,19 @@
       <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="11" t="n">
         <v>220041700024</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F23" s="14" t="n">
+      <c r="F23" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G23" s="5" t="n">
@@ -1540,10 +1540,10 @@
       <c r="I23" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J23" s="15" t="n">
+      <c r="J23" s="14" t="n">
         <v>85.19</v>
       </c>
-      <c r="K23" s="15" t="n">
+      <c r="K23" s="14" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1551,19 +1551,19 @@
       <c r="A24" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="11" t="n">
         <v>220041700025</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="13" t="n">
         <v>15.5</v>
       </c>
       <c r="G24" s="5" t="n">
@@ -1575,10 +1575,10 @@
       <c r="I24" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="14" t="n">
         <v>48.15</v>
       </c>
-      <c r="K24" s="15" t="n">
+      <c r="K24" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1586,19 +1586,19 @@
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="11" t="n">
         <v>220041700026</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="13" t="n">
         <v>13.5</v>
       </c>
       <c r="G25" s="5" t="n">
@@ -1610,10 +1610,10 @@
       <c r="I25" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J25" s="15" t="n">
+      <c r="J25" s="14" t="n">
         <v>48.15</v>
       </c>
-      <c r="K25" s="15" t="n">
+      <c r="K25" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1621,19 +1621,19 @@
       <c r="A26" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="11" t="n">
         <v>220041700027</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="13" t="n">
         <v>17</v>
       </c>
       <c r="G26" s="5" t="n">
@@ -1645,10 +1645,10 @@
       <c r="I26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J26" s="15" t="n">
+      <c r="J26" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K26" s="15" t="n">
+      <c r="K26" s="14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1656,19 +1656,19 @@
       <c r="A27" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="11" t="n">
         <v>220041700028</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="F27" s="14" t="n">
+      <c r="F27" s="13" t="n">
         <v>27</v>
       </c>
       <c r="G27" s="5" t="n">
@@ -1680,10 +1680,10 @@
       <c r="I27" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J27" s="15" t="n">
+      <c r="J27" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K27" s="15" t="n">
+      <c r="K27" s="14" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1691,19 +1691,19 @@
       <c r="A28" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="11" t="n">
         <v>220041700029</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>4.5</v>
       </c>
-      <c r="F28" s="14" t="n">
+      <c r="F28" s="13" t="n">
         <v>9.5</v>
       </c>
       <c r="G28" s="5" t="n">
@@ -1715,10 +1715,10 @@
       <c r="I28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="15" t="n">
+      <c r="J28" s="14" t="n">
         <v>59.26</v>
       </c>
-      <c r="K28" s="15" t="n">
+      <c r="K28" s="14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1726,19 +1726,19 @@
       <c r="A29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="11" t="n">
         <v>220041700030</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="5" t="n">
@@ -1750,10 +1750,10 @@
       <c r="I29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="15" t="n">
+      <c r="J29" s="14" t="n">
         <v>14.81</v>
       </c>
-      <c r="K29" s="15" t="n">
+      <c r="K29" s="14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1761,19 +1761,19 @@
       <c r="A30" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="11" t="n">
         <v>220041700031</v>
       </c>
-      <c r="D30" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" s="14" t="n">
+      <c r="D30" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="13" t="n">
         <v>15.5</v>
       </c>
       <c r="G30" s="5" t="n">
@@ -1785,10 +1785,10 @@
       <c r="I30" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J30" s="15" t="n">
+      <c r="J30" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K30" s="15" t="n">
+      <c r="K30" s="14" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1796,19 +1796,19 @@
       <c r="A31" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="11" t="n">
         <v>220041700032</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="5" t="n">
@@ -1820,10 +1820,10 @@
       <c r="I31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="15" t="n">
+      <c r="J31" s="14" t="n">
         <v>11.11</v>
       </c>
-      <c r="K31" s="15" t="n">
+      <c r="K31" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1831,19 +1831,19 @@
       <c r="A32" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="11" t="n">
         <v>220041700033</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F32" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="n">
@@ -1855,10 +1855,10 @@
       <c r="I32" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J32" s="15" t="n">
+      <c r="J32" s="14" t="n">
         <v>59.26</v>
       </c>
-      <c r="K32" s="15" t="n">
+      <c r="K32" s="14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1866,19 +1866,19 @@
       <c r="A33" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12" t="n">
+      <c r="C33" s="11" t="n">
         <v>220041700034</v>
       </c>
-      <c r="D33" s="13" t="n">
+      <c r="D33" s="12" t="n">
         <v>15.5</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="n">
@@ -1890,10 +1890,10 @@
       <c r="I33" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J33" s="15" t="n">
+      <c r="J33" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K33" s="15" t="n">
+      <c r="K33" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1901,19 +1901,19 @@
       <c r="A34" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="11" t="n">
         <v>220041700035</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G34" s="5" t="n">
@@ -1925,10 +1925,10 @@
       <c r="I34" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J34" s="15" t="n">
+      <c r="J34" s="14" t="n">
         <v>96.3</v>
       </c>
-      <c r="K34" s="15" t="n">
+      <c r="K34" s="14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1936,19 +1936,19 @@
       <c r="A35" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="12" t="n">
+      <c r="C35" s="11" t="n">
         <v>220041700036</v>
       </c>
-      <c r="D35" s="13" t="n">
+      <c r="D35" s="12" t="n">
         <v>16.5</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="F35" s="14" t="n">
+      <c r="F35" s="13" t="n">
         <v>21</v>
       </c>
       <c r="G35" s="5" t="n">
@@ -1960,10 +1960,10 @@
       <c r="I35" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J35" s="15" t="n">
+      <c r="J35" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K35" s="15" t="n">
+      <c r="K35" s="14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1971,19 +1971,19 @@
       <c r="A36" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="11" t="n">
         <v>220041700037</v>
       </c>
-      <c r="D36" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="14" t="n">
+      <c r="D36" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="n">
@@ -1995,10 +1995,10 @@
       <c r="I36" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J36" s="15" t="n">
+      <c r="J36" s="14" t="n">
         <v>62.96</v>
       </c>
-      <c r="K36" s="15" t="n">
+      <c r="K36" s="14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2006,19 +2006,19 @@
       <c r="A37" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="11" t="n">
         <v>220041700038</v>
       </c>
-      <c r="D37" s="13" t="n">
+      <c r="D37" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="13" t="n">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="n">
@@ -2030,10 +2030,10 @@
       <c r="I37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="14" t="n">
         <v>74.07</v>
       </c>
-      <c r="K37" s="15" t="n">
+      <c r="K37" s="14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2041,19 +2041,19 @@
       <c r="A38" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="11" t="n">
         <v>220041700039</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="F38" s="14" t="n">
+      <c r="F38" s="13" t="n">
         <v>18</v>
       </c>
       <c r="G38" s="5" t="n">
@@ -2065,10 +2065,10 @@
       <c r="I38" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="J38" s="15" t="n">
+      <c r="J38" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K38" s="15" t="n">
+      <c r="K38" s="14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2076,19 +2076,19 @@
       <c r="A39" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="11" t="n">
         <v>220041700040</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F39" s="14" t="n">
+      <c r="F39" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="n">
@@ -2100,10 +2100,10 @@
       <c r="I39" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K39" s="15" t="n">
+      <c r="K39" s="14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2111,19 +2111,19 @@
       <c r="A40" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="11" t="n">
         <v>220041700042</v>
       </c>
-      <c r="D40" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" s="14" t="n">
+      <c r="D40" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F40" s="14" t="n">
+      <c r="F40" s="13" t="n">
         <v>8</v>
       </c>
       <c r="G40" s="5" t="n">
@@ -2135,10 +2135,10 @@
       <c r="I40" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J40" s="15" t="n">
+      <c r="J40" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K40" s="15" t="n">
+      <c r="K40" s="14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2146,19 +2146,19 @@
       <c r="A41" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="11" t="n">
         <v>220041700043</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G41" s="5" t="n">
@@ -2170,10 +2170,10 @@
       <c r="I41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="15" t="n">
+      <c r="J41" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K41" s="15" t="n">
+      <c r="K41" s="14" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2181,19 +2181,19 @@
       <c r="A42" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="11" t="n">
         <v>220041700044</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="F42" s="14" t="n">
+      <c r="F42" s="13" t="n">
         <v>13</v>
       </c>
       <c r="G42" s="5" t="n">
@@ -2205,10 +2205,10 @@
       <c r="I42" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J42" s="15" t="n">
+      <c r="J42" s="14" t="n">
         <v>62.96</v>
       </c>
-      <c r="K42" s="15" t="n">
+      <c r="K42" s="14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2216,19 +2216,19 @@
       <c r="A43" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="11" t="n">
         <v>220041700045</v>
       </c>
-      <c r="D43" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" s="14" t="n">
+      <c r="D43" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" s="13" t="n">
         <v>12.5</v>
       </c>
-      <c r="F43" s="14" t="n">
+      <c r="F43" s="13" t="n">
         <v>15.5</v>
       </c>
       <c r="G43" s="5" t="n">
@@ -2240,10 +2240,10 @@
       <c r="I43" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J43" s="15" t="n">
+      <c r="J43" s="14" t="n">
         <v>55.56</v>
       </c>
-      <c r="K43" s="15" t="n">
+      <c r="K43" s="14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2251,19 +2251,19 @@
       <c r="A44" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="11" t="n">
         <v>220041700046</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="F44" s="14" t="n">
+      <c r="F44" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G44" s="5" t="n">
@@ -2275,10 +2275,10 @@
       <c r="I44" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J44" s="15" t="n">
+      <c r="J44" s="14" t="n">
         <v>51.85</v>
       </c>
-      <c r="K44" s="15" t="n">
+      <c r="K44" s="14" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2286,19 +2286,19 @@
       <c r="A45" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="11" t="n">
         <v>220041700047</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="5" t="n">
@@ -2310,10 +2310,10 @@
       <c r="I45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="15" t="n">
+      <c r="J45" s="14" t="n">
         <v>7.41</v>
       </c>
-      <c r="K45" s="15" t="n">
+      <c r="K45" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,19 +2321,19 @@
       <c r="A46" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="12" t="n">
+      <c r="C46" s="11" t="n">
         <v>220041700048</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="14" t="n">
+      <c r="E46" s="13" t="n">
         <v>1.5</v>
       </c>
-      <c r="F46" s="14" t="n">
+      <c r="F46" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="n">
@@ -2345,10 +2345,10 @@
       <c r="I46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J46" s="15" t="n">
+      <c r="J46" s="14" t="n">
         <v>18.52</v>
       </c>
-      <c r="K46" s="15" t="n">
+      <c r="K46" s="14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2356,19 +2356,19 @@
       <c r="A47" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="12" t="n">
+      <c r="C47" s="11" t="n">
         <v>220041700049</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F47" s="14" t="n">
+      <c r="F47" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G47" s="5" t="n">
@@ -2380,10 +2380,10 @@
       <c r="I47" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J47" s="15" t="n">
+      <c r="J47" s="14" t="n">
         <v>70.37</v>
       </c>
-      <c r="K47" s="15" t="n">
+      <c r="K47" s="14" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2391,19 +2391,19 @@
       <c r="A48" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="12" t="n">
+      <c r="C48" s="11" t="n">
         <v>220041700051</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F48" s="14" t="n">
+      <c r="F48" s="13" t="n">
         <v>22</v>
       </c>
       <c r="G48" s="5" t="n">
@@ -2415,10 +2415,10 @@
       <c r="I48" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J48" s="15" t="n">
+      <c r="J48" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K48" s="15" t="n">
+      <c r="K48" s="14" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2426,19 +2426,19 @@
       <c r="A49" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="12" t="n">
+      <c r="C49" s="11" t="n">
         <v>220041700052</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="F49" s="14" t="n">
+      <c r="F49" s="13" t="n">
         <v>13</v>
       </c>
       <c r="G49" s="5" t="n">
@@ -2450,10 +2450,10 @@
       <c r="I49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J49" s="15" t="n">
+      <c r="J49" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K49" s="15" t="n">
+      <c r="K49" s="14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2461,19 +2461,19 @@
       <c r="A50" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="12" t="n">
+      <c r="C50" s="11" t="n">
         <v>220041700053</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="13" t="n">
         <v>2.5</v>
       </c>
-      <c r="F50" s="14" t="n">
+      <c r="F50" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="n">
@@ -2485,10 +2485,10 @@
       <c r="I50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J50" s="15" t="n">
+      <c r="J50" s="14" t="n">
         <v>25.93</v>
       </c>
-      <c r="K50" s="15" t="n">
+      <c r="K50" s="14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2496,19 +2496,19 @@
       <c r="A51" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="12" t="n">
+      <c r="C51" s="11" t="n">
         <v>220041700054</v>
       </c>
-      <c r="D51" s="13" t="n">
+      <c r="D51" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="13" t="n">
         <v>9.5</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F51" s="13" t="n">
         <v>9</v>
       </c>
       <c r="G51" s="5" t="n">
@@ -2520,10 +2520,10 @@
       <c r="I51" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J51" s="15" t="n">
+      <c r="J51" s="14" t="n">
         <v>88.89</v>
       </c>
-      <c r="K51" s="15" t="n">
+      <c r="K51" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2531,19 +2531,19 @@
       <c r="A52" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="11" t="n">
         <v>220041700055</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E52" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F52" s="14" t="n">
+      <c r="F52" s="13" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="5" t="n">
@@ -2555,10 +2555,10 @@
       <c r="I52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J52" s="15" t="n">
+      <c r="J52" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K52" s="15" t="n">
+      <c r="K52" s="14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2566,19 +2566,19 @@
       <c r="A53" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="12" t="n">
+      <c r="C53" s="11" t="n">
         <v>220041700056</v>
       </c>
-      <c r="D53" s="13" t="n">
+      <c r="D53" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F53" s="14" t="n">
+      <c r="F53" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G53" s="5" t="n">
@@ -2590,10 +2590,10 @@
       <c r="I53" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J53" s="15" t="n">
+      <c r="J53" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K53" s="15" t="n">
+      <c r="K53" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2601,19 +2601,19 @@
       <c r="A54" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="11" t="n">
         <v>220041700057</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="E54" s="14" t="n">
+      <c r="E54" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F54" s="14" t="n">
+      <c r="F54" s="13" t="n">
         <v>17</v>
       </c>
       <c r="G54" s="5" t="n">
@@ -2625,10 +2625,10 @@
       <c r="I54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J54" s="15" t="n">
+      <c r="J54" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K54" s="15" t="n">
+      <c r="K54" s="14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2636,19 +2636,19 @@
       <c r="A55" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="12" t="n">
+      <c r="C55" s="11" t="n">
         <v>220041700058</v>
       </c>
-      <c r="D55" s="13" t="n">
+      <c r="D55" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="E55" s="14" t="n">
+      <c r="E55" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F55" s="14" t="n">
+      <c r="F55" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G55" s="5" t="n">
@@ -2660,10 +2660,10 @@
       <c r="I55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="15" t="n">
+      <c r="J55" s="14" t="n">
         <v>55.56</v>
       </c>
-      <c r="K55" s="15" t="n">
+      <c r="K55" s="14" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2671,19 +2671,19 @@
       <c r="A56" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="11" t="n">
         <v>220041700059</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F56" s="14" t="n">
+      <c r="F56" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="n">
@@ -2695,10 +2695,10 @@
       <c r="I56" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J56" s="15" t="n">
+      <c r="J56" s="14" t="n">
         <v>51.85</v>
       </c>
-      <c r="K56" s="15" t="n">
+      <c r="K56" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2706,19 +2706,19 @@
       <c r="A57" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="12" t="n">
+      <c r="C57" s="11" t="n">
         <v>220041700060</v>
       </c>
-      <c r="D57" s="13" t="n">
+      <c r="D57" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F57" s="14" t="n">
+      <c r="F57" s="13" t="n">
         <v>13</v>
       </c>
       <c r="G57" s="5" t="n">
@@ -2730,10 +2730,10 @@
       <c r="I57" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J57" s="15" t="n">
+      <c r="J57" s="14" t="n">
         <v>77.78</v>
       </c>
-      <c r="K57" s="15" t="n">
+      <c r="K57" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2741,19 +2741,19 @@
       <c r="A58" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="12" t="n">
+      <c r="C58" s="11" t="n">
         <v>220041700061</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E58" s="14" t="n">
+      <c r="E58" s="13" t="n">
         <v>9.5</v>
       </c>
-      <c r="F58" s="14" t="n">
+      <c r="F58" s="13" t="n">
         <v>15.5</v>
       </c>
       <c r="G58" s="5" t="n">
@@ -2765,10 +2765,10 @@
       <c r="I58" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J58" s="15" t="n">
+      <c r="J58" s="14" t="n">
         <v>55.56</v>
       </c>
-      <c r="K58" s="15" t="n">
+      <c r="K58" s="14" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2776,19 +2776,19 @@
       <c r="A59" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="12" t="n">
+      <c r="C59" s="11" t="n">
         <v>220041700063</v>
       </c>
-      <c r="D59" s="13" t="n">
+      <c r="D59" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F59" s="14" t="n">
+      <c r="F59" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G59" s="5" t="n">
@@ -2800,10 +2800,10 @@
       <c r="I59" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="15" t="n">
+      <c r="J59" s="14" t="n">
         <v>81.48</v>
       </c>
-      <c r="K59" s="15" t="n">
+      <c r="K59" s="14" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2811,19 +2811,19 @@
       <c r="A60" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="12" t="n">
+      <c r="C60" s="11" t="n">
         <v>220041700064</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="F60" s="14" t="n">
+      <c r="F60" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G60" s="5" t="n">
@@ -2835,10 +2835,10 @@
       <c r="I60" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="J60" s="15" t="n">
+      <c r="J60" s="14" t="n">
         <v>51.85</v>
       </c>
-      <c r="K60" s="15" t="n">
+      <c r="K60" s="14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2846,19 +2846,19 @@
       <c r="A61" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="12" t="n">
+      <c r="C61" s="11" t="n">
         <v>220041700065</v>
       </c>
-      <c r="D61" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" s="14" t="n">
+      <c r="D61" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G61" s="5" t="n">
@@ -2870,10 +2870,10 @@
       <c r="I61" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J61" s="15" t="n">
+      <c r="J61" s="14" t="n">
         <v>70.37</v>
       </c>
-      <c r="K61" s="15" t="n">
+      <c r="K61" s="14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2881,19 +2881,19 @@
       <c r="A62" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="12" t="n">
+      <c r="C62" s="11" t="n">
         <v>220041700066</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="14" t="n">
+      <c r="E62" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F62" s="14" t="n">
+      <c r="F62" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G62" s="5" t="n">
@@ -2905,10 +2905,10 @@
       <c r="I62" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J62" s="15" t="n">
+      <c r="J62" s="14" t="n">
         <v>74.07</v>
       </c>
-      <c r="K62" s="15" t="n">
+      <c r="K62" s="14" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2916,19 +2916,19 @@
       <c r="A63" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="12" t="n">
+      <c r="C63" s="11" t="n">
         <v>220041700067</v>
       </c>
-      <c r="D63" s="13" t="n">
+      <c r="D63" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F63" s="14" t="n">
+      <c r="F63" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G63" s="5" t="n">
@@ -2940,10 +2940,10 @@
       <c r="I63" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J63" s="15" t="n">
+      <c r="J63" s="14" t="n">
         <v>92.59</v>
       </c>
-      <c r="K63" s="15" t="n">
+      <c r="K63" s="14" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2951,19 +2951,19 @@
       <c r="A64" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="12" t="n">
+      <c r="C64" s="11" t="n">
         <v>220041700068</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E64" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F64" s="14" t="n">
+      <c r="E64" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="n">
@@ -2975,28 +2975,28 @@
       <c r="I64" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J64" s="15" t="n">
+      <c r="J64" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K64" s="15"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="12" t="n">
+      <c r="C65" s="11" t="n">
         <v>220041700069</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="E65" s="14" t="n">
+      <c r="E65" s="13" t="n">
         <v>8.5</v>
       </c>
-      <c r="F65" s="14" t="n">
+      <c r="F65" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G65" s="5" t="n">
@@ -3008,28 +3008,28 @@
       <c r="I65" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J65" s="15" t="n">
+      <c r="J65" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K65" s="15"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="12" t="n">
+      <c r="C66" s="11" t="n">
         <v>220041700070</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E66" s="14" t="n">
+      <c r="E66" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="F66" s="14" t="n">
+      <c r="F66" s="13" t="n">
         <v>7</v>
       </c>
       <c r="G66" s="5" t="n">
@@ -3041,28 +3041,28 @@
       <c r="I66" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J66" s="15" t="n">
+      <c r="J66" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="12" t="n">
+      <c r="C67" s="11" t="n">
         <v>220041700071</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E67" s="14" t="n">
+      <c r="E67" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F67" s="14" t="n">
+      <c r="F67" s="13" t="n">
         <v>23</v>
       </c>
       <c r="G67" s="5" t="n">
@@ -3074,28 +3074,28 @@
       <c r="I67" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J67" s="15" t="n">
+      <c r="J67" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="12" t="n">
+      <c r="C68" s="11" t="n">
         <v>220041700072</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E68" s="14" t="n">
+      <c r="E68" s="13" t="n">
         <v>10.5</v>
       </c>
-      <c r="F68" s="14" t="n">
+      <c r="F68" s="13" t="n">
         <v>4</v>
       </c>
       <c r="G68" s="5" t="n">
@@ -3107,28 +3107,28 @@
       <c r="I68" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J68" s="15" t="n">
+      <c r="J68" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="12" t="n">
+      <c r="C69" s="11" t="n">
         <v>220041700073</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E69" s="14" t="n">
+      <c r="E69" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F69" s="14" t="n">
+      <c r="F69" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G69" s="5" t="n">
@@ -3140,28 +3140,28 @@
       <c r="I69" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J69" s="15" t="n">
+      <c r="J69" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K69" s="15"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="12" t="n">
+      <c r="C70" s="11" t="n">
         <v>220041700074</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="14" t="n">
+      <c r="E70" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F70" s="14" t="n">
+      <c r="F70" s="13" t="n">
         <v>20</v>
       </c>
       <c r="G70" s="5" t="n">
@@ -3173,28 +3173,28 @@
       <c r="I70" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J70" s="15" t="n">
+      <c r="J70" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="12" t="n">
+      <c r="C71" s="11" t="n">
         <v>220041700076</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="E71" s="14" t="n">
+      <c r="E71" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F71" s="14" t="n">
+      <c r="F71" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G71" s="5" t="n">
@@ -3206,28 +3206,28 @@
       <c r="I71" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J71" s="15" t="n">
+      <c r="J71" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K71" s="15"/>
+      <c r="K71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="12" t="n">
+      <c r="C72" s="11" t="n">
         <v>220041700077</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E72" s="14" t="n">
+      <c r="E72" s="13" t="n">
         <v>8.5</v>
       </c>
-      <c r="F72" s="14" t="n">
+      <c r="F72" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G72" s="5" t="n">
@@ -3239,28 +3239,28 @@
       <c r="I72" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J72" s="15" t="n">
+      <c r="J72" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="12" t="n">
+      <c r="C73" s="11" t="n">
         <v>220041700078</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E73" s="14" t="n">
+      <c r="E73" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F73" s="14" t="n">
+      <c r="F73" s="13" t="n">
         <v>23</v>
       </c>
       <c r="G73" s="5" t="n">
@@ -3272,28 +3272,28 @@
       <c r="I73" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J73" s="15" t="n">
+      <c r="J73" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="K73" s="15"/>
+      <c r="K73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="12" t="n">
+      <c r="C74" s="11" t="n">
         <v>220041700079</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="E74" s="14" t="n">
+      <c r="E74" s="13" t="n">
         <v>7.5</v>
       </c>
-      <c r="F74" s="14" t="n">
+      <c r="F74" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G74" s="5" t="n">
@@ -3305,28 +3305,28 @@
       <c r="I74" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J74" s="15" t="n">
+      <c r="J74" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K74" s="15"/>
+      <c r="K74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="12" t="n">
+      <c r="C75" s="11" t="n">
         <v>220041700080</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="E75" s="14" t="n">
+      <c r="E75" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F75" s="14" t="n">
+      <c r="F75" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G75" s="5" t="n">
@@ -3338,28 +3338,28 @@
       <c r="I75" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J75" s="15" t="n">
+      <c r="J75" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="12" t="n">
+      <c r="C76" s="11" t="n">
         <v>220041700081</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>12.5</v>
       </c>
-      <c r="E76" s="14" t="n">
+      <c r="E76" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F76" s="14" t="n">
+      <c r="F76" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G76" s="5" t="n">
@@ -3371,28 +3371,28 @@
       <c r="I76" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J76" s="15" t="n">
+      <c r="J76" s="14" t="n">
         <v>63.64</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="12" t="n">
+      <c r="C77" s="11" t="n">
         <v>220041700082</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E77" s="14" t="n">
+      <c r="E77" s="13" t="n">
         <v>3.5</v>
       </c>
-      <c r="F77" s="14" t="n">
+      <c r="F77" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="5" t="n">
@@ -3404,28 +3404,28 @@
       <c r="I77" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="15" t="n">
+      <c r="J77" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K77" s="15"/>
+      <c r="K77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="12" t="n">
+      <c r="C78" s="11" t="n">
         <v>220041700084</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="E78" s="14" t="n">
+      <c r="E78" s="13" t="n">
         <v>8.5</v>
       </c>
-      <c r="F78" s="14" t="n">
+      <c r="F78" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G78" s="5" t="n">
@@ -3437,28 +3437,28 @@
       <c r="I78" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J78" s="15" t="n">
+      <c r="J78" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K78" s="15"/>
+      <c r="K78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="12" t="n">
+      <c r="C79" s="11" t="n">
         <v>220041700085</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="E79" s="14" t="n">
+      <c r="E79" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F79" s="14" t="n">
+      <c r="F79" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G79" s="5" t="n">
@@ -3470,28 +3470,28 @@
       <c r="I79" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J79" s="15" t="n">
+      <c r="J79" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K79" s="15"/>
+      <c r="K79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="12" t="n">
+      <c r="C80" s="11" t="n">
         <v>220041700086</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="14" t="n">
+      <c r="E80" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F80" s="14" t="n">
+      <c r="F80" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G80" s="5" t="n">
@@ -3503,28 +3503,28 @@
       <c r="I80" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J80" s="15" t="n">
+      <c r="J80" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K80" s="15"/>
+      <c r="K80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="12" t="n">
+      <c r="C81" s="11" t="n">
         <v>220041700087</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E81" s="14" t="n">
+      <c r="E81" s="13" t="n">
         <v>18.5</v>
       </c>
-      <c r="F81" s="14" t="n">
+      <c r="F81" s="13" t="n">
         <v>17</v>
       </c>
       <c r="G81" s="5" t="n">
@@ -3536,28 +3536,28 @@
       <c r="I81" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J81" s="15" t="n">
+      <c r="J81" s="14" t="n">
         <v>30.3</v>
       </c>
-      <c r="K81" s="15"/>
+      <c r="K81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="12" t="n">
+      <c r="C82" s="11" t="n">
         <v>220041700088</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E82" s="14" t="n">
+      <c r="E82" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="F82" s="14" t="n">
+      <c r="F82" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G82" s="5" t="n">
@@ -3569,28 +3569,28 @@
       <c r="I82" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J82" s="15" t="n">
+      <c r="J82" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K82" s="15"/>
+      <c r="K82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="12" t="n">
+      <c r="C83" s="11" t="n">
         <v>220041700089</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E83" s="14" t="n">
+      <c r="E83" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F83" s="14" t="n">
+      <c r="F83" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G83" s="5" t="n">
@@ -3602,28 +3602,28 @@
       <c r="I83" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J83" s="15" t="n">
+      <c r="J83" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="12" t="n">
+      <c r="C84" s="11" t="n">
         <v>220041700090</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E84" s="14" t="n">
+      <c r="E84" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F84" s="14" t="n">
+      <c r="F84" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G84" s="5" t="n">
@@ -3635,28 +3635,28 @@
       <c r="I84" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J84" s="15" t="n">
+      <c r="J84" s="14" t="n">
         <v>33.33</v>
       </c>
-      <c r="K84" s="15"/>
+      <c r="K84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12" t="n">
+      <c r="C85" s="11" t="n">
         <v>220041700091</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E85" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F85" s="14" t="n">
+      <c r="E85" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G85" s="5" t="n">
@@ -3668,28 +3668,28 @@
       <c r="I85" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="J85" s="15" t="n">
+      <c r="J85" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K85" s="15"/>
+      <c r="K85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="12" t="n">
+      <c r="C86" s="11" t="n">
         <v>220041700092</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E86" s="14" t="n">
+      <c r="E86" s="13" t="n">
         <v>12.5</v>
       </c>
-      <c r="F86" s="14" t="n">
+      <c r="F86" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G86" s="5" t="n">
@@ -3701,28 +3701,28 @@
       <c r="I86" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J86" s="15" t="n">
+      <c r="J86" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K86" s="15"/>
+      <c r="K86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="12" t="n">
+      <c r="C87" s="11" t="n">
         <v>220041700096</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E87" s="14" t="n">
+      <c r="E87" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="F87" s="14" t="n">
+      <c r="F87" s="13" t="n">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="n">
@@ -3734,28 +3734,28 @@
       <c r="I87" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J87" s="15" t="n">
+      <c r="J87" s="14" t="n">
         <v>51.52</v>
       </c>
-      <c r="K87" s="15"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="12" t="n">
+      <c r="C88" s="11" t="n">
         <v>220041700097</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E88" s="14" t="n">
+      <c r="E88" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F88" s="14" t="n">
+      <c r="F88" s="13" t="n">
         <v>13</v>
       </c>
       <c r="G88" s="5" t="n">
@@ -3767,28 +3767,28 @@
       <c r="I88" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J88" s="15" t="n">
+      <c r="J88" s="14" t="n">
         <v>30.3</v>
       </c>
-      <c r="K88" s="15"/>
+      <c r="K88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="12" t="n">
+      <c r="C89" s="11" t="n">
         <v>220041700098</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>24.5</v>
       </c>
-      <c r="E89" s="14" t="n">
+      <c r="E89" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F89" s="14" t="n">
+      <c r="F89" s="13" t="n">
         <v>17</v>
       </c>
       <c r="G89" s="5" t="n">
@@ -3800,28 +3800,28 @@
       <c r="I89" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J89" s="15" t="n">
+      <c r="J89" s="14" t="n">
         <v>84.85</v>
       </c>
-      <c r="K89" s="15"/>
+      <c r="K89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="12" t="n">
+      <c r="C90" s="11" t="n">
         <v>220041700099</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E90" s="14" t="n">
+      <c r="E90" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F90" s="14" t="n">
+      <c r="F90" s="13" t="n">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="n">
@@ -3833,28 +3833,28 @@
       <c r="I90" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J90" s="15" t="n">
+      <c r="J90" s="14" t="n">
         <v>90.91</v>
       </c>
-      <c r="K90" s="15"/>
+      <c r="K90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="12" t="n">
+      <c r="C91" s="11" t="n">
         <v>220041700100</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E91" s="14" t="n">
+      <c r="E91" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F91" s="14" t="n">
+      <c r="F91" s="13" t="n">
         <v>22</v>
       </c>
       <c r="G91" s="5" t="n">
@@ -3866,28 +3866,28 @@
       <c r="I91" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J91" s="15" t="n">
+      <c r="J91" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K91" s="15"/>
+      <c r="K91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="12" t="n">
+      <c r="C92" s="11" t="n">
         <v>220041700101</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="5" t="n">
@@ -3899,28 +3899,28 @@
       <c r="I92" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J92" s="15" t="n">
+      <c r="J92" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K92" s="15"/>
+      <c r="K92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="12" t="n">
+      <c r="C93" s="11" t="n">
         <v>220041700102</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E93" s="14" t="n">
+      <c r="E93" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="F93" s="14" t="n">
+      <c r="F93" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="n">
@@ -3932,28 +3932,28 @@
       <c r="I93" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J93" s="15" t="n">
+      <c r="J93" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K93" s="15"/>
+      <c r="K93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="12" t="n">
+      <c r="C94" s="11" t="n">
         <v>220041700103</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E94" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F94" s="14" t="n">
+      <c r="E94" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" s="13" t="n">
         <v>22</v>
       </c>
       <c r="G94" s="5" t="n">
@@ -3965,28 +3965,28 @@
       <c r="I94" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J94" s="15" t="n">
+      <c r="J94" s="14" t="n">
         <v>54.55</v>
       </c>
-      <c r="K94" s="15"/>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="12" t="n">
+      <c r="C95" s="11" t="n">
         <v>220041700104</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="14" t="n">
+      <c r="E95" s="13" t="n">
         <v>12.5</v>
       </c>
-      <c r="F95" s="14" t="n">
+      <c r="F95" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G95" s="5" t="n">
@@ -3998,28 +3998,28 @@
       <c r="I95" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J95" s="15" t="n">
+      <c r="J95" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K95" s="15"/>
+      <c r="K95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="12" t="n">
+      <c r="C96" s="11" t="n">
         <v>220041700105</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="E96" s="14" t="n">
+      <c r="E96" s="13" t="n">
         <v>12.5</v>
       </c>
-      <c r="F96" s="14" t="n">
+      <c r="F96" s="13" t="n">
         <v>17</v>
       </c>
       <c r="G96" s="5" t="n">
@@ -4031,28 +4031,28 @@
       <c r="I96" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J96" s="15" t="n">
+      <c r="J96" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K96" s="15"/>
+      <c r="K96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="12" t="n">
+      <c r="C97" s="11" t="n">
         <v>220041700106</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="14" t="n">
+      <c r="E97" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F97" s="14" t="n">
+      <c r="F97" s="13" t="n">
         <v>23</v>
       </c>
       <c r="G97" s="5" t="n">
@@ -4064,28 +4064,28 @@
       <c r="I97" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J97" s="15" t="n">
+      <c r="J97" s="14" t="n">
         <v>72.73</v>
       </c>
-      <c r="K97" s="15"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="12" t="n">
+      <c r="C98" s="11" t="n">
         <v>220041700107</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="E98" s="14" t="n">
+      <c r="E98" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F98" s="14" t="n">
+      <c r="F98" s="13" t="n">
         <v>23</v>
       </c>
       <c r="G98" s="5" t="n">
@@ -4097,28 +4097,28 @@
       <c r="I98" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J98" s="15" t="n">
+      <c r="J98" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K98" s="15"/>
+      <c r="K98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="12" t="n">
+      <c r="C99" s="11" t="n">
         <v>220041700108</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="14" t="n">
+      <c r="E99" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F99" s="14" t="n">
+      <c r="F99" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G99" s="5" t="n">
@@ -4130,28 +4130,28 @@
       <c r="I99" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J99" s="15" t="n">
+      <c r="J99" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K99" s="15"/>
+      <c r="K99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="12" t="n">
+      <c r="C100" s="11" t="n">
         <v>220041700109</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="E100" s="14" t="n">
+      <c r="E100" s="13" t="n">
         <v>23.5</v>
       </c>
-      <c r="F100" s="14" t="n">
+      <c r="F100" s="13" t="n">
         <v>28</v>
       </c>
       <c r="G100" s="5" t="n">
@@ -4163,28 +4163,28 @@
       <c r="I100" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J100" s="15" t="n">
+      <c r="J100" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K100" s="15"/>
+      <c r="K100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="12" t="n">
+      <c r="C101" s="11" t="n">
         <v>220041700110</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E101" s="14" t="n">
+      <c r="E101" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="F101" s="14" t="n">
+      <c r="F101" s="13" t="n">
         <v>7</v>
       </c>
       <c r="G101" s="5" t="n">
@@ -4196,28 +4196,28 @@
       <c r="I101" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J101" s="15" t="n">
+      <c r="J101" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K101" s="15"/>
+      <c r="K101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="12" t="n">
+      <c r="C102" s="11" t="n">
         <v>220041700111</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F102" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="5" t="n">
@@ -4229,28 +4229,28 @@
       <c r="I102" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J102" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="15"/>
+      <c r="J102" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="12" t="n">
+      <c r="C103" s="11" t="n">
         <v>220041700112</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E103" s="14" t="n">
+      <c r="E103" s="13" t="n">
         <v>19.5</v>
       </c>
-      <c r="F103" s="14" t="n">
+      <c r="F103" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G103" s="5" t="n">
@@ -4262,28 +4262,28 @@
       <c r="I103" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J103" s="15" t="n">
+      <c r="J103" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K103" s="15"/>
+      <c r="K103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="12" t="n">
+      <c r="C104" s="11" t="n">
         <v>220041700113</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E104" s="14" t="n">
+      <c r="E104" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="F104" s="14" t="n">
+      <c r="F104" s="13" t="n">
         <v>13</v>
       </c>
       <c r="G104" s="5" t="n">
@@ -4295,28 +4295,28 @@
       <c r="I104" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J104" s="15" t="n">
+      <c r="J104" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K104" s="15"/>
+      <c r="K104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="12" t="n">
+      <c r="C105" s="11" t="n">
         <v>220041700115</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E105" s="14" t="n">
+      <c r="E105" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="F105" s="14" t="n">
+      <c r="F105" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G105" s="5" t="n">
@@ -4328,28 +4328,28 @@
       <c r="I105" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J105" s="15" t="n">
+      <c r="J105" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K105" s="15"/>
+      <c r="K105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="12" t="n">
+      <c r="C106" s="11" t="n">
         <v>220041700116</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="14" t="n">
+      <c r="E106" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="F106" s="14" t="n">
+      <c r="F106" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G106" s="5" t="n">
@@ -4361,28 +4361,28 @@
       <c r="I106" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J106" s="15" t="n">
+      <c r="J106" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K106" s="15"/>
+      <c r="K106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="12" t="n">
+      <c r="C107" s="11" t="n">
         <v>220041700117</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="E107" s="14" t="n">
+      <c r="E107" s="13" t="n">
         <v>11.5</v>
       </c>
-      <c r="F107" s="14" t="n">
+      <c r="F107" s="13" t="n">
         <v>24</v>
       </c>
       <c r="G107" s="5" t="n">
@@ -4394,28 +4394,28 @@
       <c r="I107" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J107" s="15" t="n">
+      <c r="J107" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K107" s="15"/>
+      <c r="K107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="12" t="n">
+      <c r="C108" s="11" t="n">
         <v>220041700118</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="E108" s="14" t="n">
+      <c r="E108" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F108" s="14" t="n">
+      <c r="F108" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G108" s="5" t="n">
@@ -4427,28 +4427,28 @@
       <c r="I108" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J108" s="15" t="n">
+      <c r="J108" s="14" t="n">
         <v>84.85</v>
       </c>
-      <c r="K108" s="15"/>
+      <c r="K108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="12" t="n">
+      <c r="C109" s="11" t="n">
         <v>220041700119</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E109" s="14" t="n">
+      <c r="E109" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F109" s="14" t="n">
+      <c r="F109" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="n">
@@ -4460,28 +4460,28 @@
       <c r="I109" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J109" s="15" t="n">
+      <c r="J109" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K109" s="15"/>
+      <c r="K109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="12" t="n">
+      <c r="C110" s="11" t="n">
         <v>220041700121</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="E110" s="14" t="n">
+      <c r="E110" s="13" t="n">
         <v>11.5</v>
       </c>
-      <c r="F110" s="14" t="n">
+      <c r="F110" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G110" s="5" t="n">
@@ -4493,28 +4493,28 @@
       <c r="I110" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J110" s="15" t="n">
+      <c r="J110" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K110" s="15"/>
+      <c r="K110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="12" t="n">
+      <c r="C111" s="11" t="n">
         <v>220041700122</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="E111" s="14" t="n">
+      <c r="E111" s="13" t="n">
         <v>9.5</v>
       </c>
-      <c r="F111" s="14" t="n">
+      <c r="F111" s="13" t="n">
         <v>15</v>
       </c>
       <c r="G111" s="5" t="n">
@@ -4526,28 +4526,28 @@
       <c r="I111" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J111" s="15" t="n">
+      <c r="J111" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K111" s="15"/>
+      <c r="K111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C112" s="12" t="n">
+      <c r="C112" s="11" t="n">
         <v>220041700123</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E112" s="14" t="n">
+      <c r="E112" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F112" s="14" t="n">
+      <c r="F112" s="13" t="n">
         <v>19</v>
       </c>
       <c r="G112" s="5" t="n">
@@ -4559,28 +4559,28 @@
       <c r="I112" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J112" s="15" t="n">
+      <c r="J112" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K112" s="15"/>
+      <c r="K112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="12" t="n">
+      <c r="C113" s="11" t="n">
         <v>220041700124</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="14" t="n">
+      <c r="E113" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F113" s="14" t="n">
+      <c r="F113" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G113" s="5" t="n">
@@ -4592,28 +4592,28 @@
       <c r="I113" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J113" s="15" t="n">
+      <c r="J113" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K113" s="15"/>
+      <c r="K113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="12" t="n">
+      <c r="C114" s="11" t="n">
         <v>220041700125</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E114" s="14" t="n">
+      <c r="E114" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F114" s="14" t="n">
+      <c r="F114" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G114" s="5" t="n">
@@ -4625,28 +4625,28 @@
       <c r="I114" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J114" s="15" t="n">
+      <c r="J114" s="14" t="n">
         <v>96.97</v>
       </c>
-      <c r="K114" s="15"/>
+      <c r="K114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="12" t="n">
+      <c r="C115" s="11" t="n">
         <v>220041700126</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="14" t="n">
+      <c r="E115" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F115" s="14" t="n">
+      <c r="F115" s="13" t="n">
         <v>3</v>
       </c>
       <c r="G115" s="5" t="n">
@@ -4658,28 +4658,28 @@
       <c r="I115" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J115" s="15" t="n">
+      <c r="J115" s="14" t="n">
         <v>27.27</v>
       </c>
-      <c r="K115" s="15"/>
+      <c r="K115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="12" t="n">
+      <c r="C116" s="11" t="n">
         <v>220041700130</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="E116" s="14" t="n">
+      <c r="E116" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F116" s="14" t="n">
+      <c r="F116" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G116" s="5" t="n">
@@ -4691,28 +4691,28 @@
       <c r="I116" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J116" s="15" t="n">
+      <c r="J116" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K116" s="15"/>
+      <c r="K116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="12" t="n">
+      <c r="C117" s="11" t="n">
         <v>220041700131</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E117" s="14" t="n">
+      <c r="E117" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="F117" s="14" t="n">
+      <c r="F117" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G117" s="5" t="n">
@@ -4724,28 +4724,28 @@
       <c r="I117" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J117" s="15" t="n">
+      <c r="J117" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K117" s="15"/>
+      <c r="K117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C118" s="12" t="n">
+      <c r="C118" s="11" t="n">
         <v>220041700132</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>11.5</v>
       </c>
-      <c r="E118" s="14" t="n">
+      <c r="E118" s="13" t="n">
         <v>9.5</v>
       </c>
-      <c r="F118" s="14" t="n">
+      <c r="F118" s="13" t="n">
         <v>14</v>
       </c>
       <c r="G118" s="5" t="n">
@@ -4757,28 +4757,28 @@
       <c r="I118" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J118" s="15" t="n">
+      <c r="J118" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K118" s="15"/>
+      <c r="K118" s="14"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="12" t="n">
+      <c r="C119" s="11" t="n">
         <v>220041700133</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E119" s="14" t="n">
+      <c r="E119" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="F119" s="14" t="n">
+      <c r="F119" s="13" t="n">
         <v>12</v>
       </c>
       <c r="G119" s="5" t="n">
@@ -4790,28 +4790,28 @@
       <c r="I119" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="J119" s="15" t="n">
+      <c r="J119" s="14" t="n">
         <v>72.73</v>
       </c>
-      <c r="K119" s="15"/>
+      <c r="K119" s="14"/>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="12" t="n">
+      <c r="C120" s="11" t="n">
         <v>220041700134</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E120" s="14" t="n">
+      <c r="E120" s="13" t="n">
         <v>8.5</v>
       </c>
-      <c r="F120" s="14" t="n">
+      <c r="F120" s="13" t="n">
         <v>16</v>
       </c>
       <c r="G120" s="5" t="n">
@@ -4823,16 +4823,16 @@
       <c r="I120" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J120" s="15" t="n">
+      <c r="J120" s="14" t="n">
         <v>33.33</v>
       </c>
-      <c r="K120" s="15"/>
+      <c r="K120" s="14"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D63">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A" dxfId="0">
@@ -4884,16 +4884,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4910,7 +4910,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -4919,15 +4919,15 @@
       <c r="C3" s="23" t="n">
         <v>220041700068</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="16" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -4936,15 +4936,15 @@
       <c r="C4" s="23" t="n">
         <v>220041700069</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="16" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -4953,15 +4953,15 @@
       <c r="C5" s="23" t="n">
         <v>220041700070</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -4970,15 +4970,15 @@
       <c r="C6" s="23" t="n">
         <v>220041700071</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="16" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4987,15 +4987,15 @@
       <c r="C7" s="23" t="n">
         <v>220041700072</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="16" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -5004,15 +5004,15 @@
       <c r="C8" s="23" t="n">
         <v>220041700073</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="16" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -5024,12 +5024,12 @@
       <c r="D9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="16" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -5038,15 +5038,15 @@
       <c r="C10" s="23" t="n">
         <v>220041700076</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="16" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -5055,15 +5055,15 @@
       <c r="C11" s="23" t="n">
         <v>220041700077</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="16" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -5072,15 +5072,15 @@
       <c r="C12" s="23" t="n">
         <v>220041700078</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="16" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -5089,15 +5089,15 @@
       <c r="C13" s="23" t="n">
         <v>220041700079</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="18" t="n">
         <v>4.5</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="16" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -5106,15 +5106,15 @@
       <c r="C14" s="23" t="n">
         <v>220041700080</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="A15" s="16" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -5123,15 +5123,15 @@
       <c r="C15" s="23" t="n">
         <v>220041700081</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="18" t="n">
         <v>12.5</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="16" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -5140,15 +5140,15 @@
       <c r="C16" s="23" t="n">
         <v>220041700082</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="16" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -5157,15 +5157,15 @@
       <c r="C17" s="23" t="n">
         <v>220041700084</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="18" t="n">
         <v>21.5</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="A18" s="16" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -5174,15 +5174,15 @@
       <c r="C18" s="23" t="n">
         <v>220041700085</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="18" t="n">
         <v>10.5</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="A19" s="16" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -5191,15 +5191,15 @@
       <c r="C19" s="23" t="n">
         <v>220041700086</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="16" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -5208,15 +5208,15 @@
       <c r="C20" s="23" t="n">
         <v>220041700087</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="16" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -5225,15 +5225,15 @@
       <c r="C21" s="23" t="n">
         <v>220041700088</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="16" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -5242,15 +5242,15 @@
       <c r="C22" s="23" t="n">
         <v>220041700089</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="A23" s="16" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -5259,15 +5259,15 @@
       <c r="C23" s="23" t="n">
         <v>220041700090</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="n">
+      <c r="D23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="16" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -5276,15 +5276,15 @@
       <c r="C24" s="23" t="n">
         <v>220041700091</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
+      <c r="A25" s="16" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -5293,15 +5293,15 @@
       <c r="C25" s="23" t="n">
         <v>220041700092</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+      <c r="A26" s="16" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -5310,15 +5310,15 @@
       <c r="C26" s="23" t="n">
         <v>220041700096</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="16" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -5327,15 +5327,15 @@
       <c r="C27" s="23" t="n">
         <v>220041700097</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="16" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -5344,15 +5344,15 @@
       <c r="C28" s="23" t="n">
         <v>220041700098</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="18" t="n">
         <v>24.5</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+      <c r="A29" s="16" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -5361,15 +5361,15 @@
       <c r="C29" s="23" t="n">
         <v>220041700099</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="A30" s="16" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -5378,15 +5378,15 @@
       <c r="C30" s="23" t="n">
         <v>220041700100</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="A31" s="16" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -5398,12 +5398,12 @@
       <c r="D31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+      <c r="A32" s="16" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -5412,15 +5412,15 @@
       <c r="C32" s="23" t="n">
         <v>220041700102</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+      <c r="A33" s="16" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -5429,15 +5429,15 @@
       <c r="C33" s="23" t="n">
         <v>220041700103</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="16" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -5449,12 +5449,12 @@
       <c r="D34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="16" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -5463,15 +5463,15 @@
       <c r="C35" s="23" t="n">
         <v>220041700105</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="16" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
@@ -5483,12 +5483,12 @@
       <c r="D36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="16" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -5497,15 +5497,15 @@
       <c r="C37" s="23" t="n">
         <v>220041700107</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="16" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -5514,15 +5514,15 @@
       <c r="C38" s="23" t="n">
         <v>220041700108</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="16" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -5531,15 +5531,15 @@
       <c r="C39" s="23" t="n">
         <v>220041700109</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="16" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -5548,15 +5548,15 @@
       <c r="C40" s="23" t="n">
         <v>220041700110</v>
       </c>
-      <c r="D40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6" t="n">
+      <c r="D40" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="n">
+      <c r="A41" s="16" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -5565,15 +5565,15 @@
       <c r="C41" s="23" t="n">
         <v>220041700111</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="n">
+      <c r="A42" s="16" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -5582,15 +5582,15 @@
       <c r="C42" s="23" t="n">
         <v>220041700112</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="n">
+      <c r="A43" s="16" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -5599,15 +5599,15 @@
       <c r="C43" s="23" t="n">
         <v>220041700113</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+      <c r="A44" s="16" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -5616,15 +5616,15 @@
       <c r="C44" s="23" t="n">
         <v>220041700115</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="n">
+      <c r="A45" s="16" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -5636,12 +5636,12 @@
       <c r="D45" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="A46" s="16" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -5650,15 +5650,15 @@
       <c r="C46" s="23" t="n">
         <v>220041700117</v>
       </c>
-      <c r="D46" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E46" s="6" t="n">
+      <c r="D46" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="n">
+      <c r="A47" s="16" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -5667,15 +5667,15 @@
       <c r="C47" s="23" t="n">
         <v>220041700118</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
+      <c r="A48" s="16" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="22" t="s">
@@ -5684,15 +5684,15 @@
       <c r="C48" s="23" t="n">
         <v>220041700119</v>
       </c>
-      <c r="D48" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E48" s="6" t="n">
+      <c r="D48" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="A49" s="16" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -5701,15 +5701,15 @@
       <c r="C49" s="23" t="n">
         <v>220041700121</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+      <c r="A50" s="16" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -5718,15 +5718,15 @@
       <c r="C50" s="23" t="n">
         <v>220041700122</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="n">
+      <c r="A51" s="16" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="22" t="s">
@@ -5735,15 +5735,15 @@
       <c r="C51" s="23" t="n">
         <v>220041700123</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="18" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="n">
+      <c r="A52" s="16" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -5755,12 +5755,12 @@
       <c r="D52" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="n">
+      <c r="A53" s="16" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -5769,15 +5769,15 @@
       <c r="C53" s="23" t="n">
         <v>220041700125</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="n">
+      <c r="A54" s="16" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="22" t="s">
@@ -5789,12 +5789,12 @@
       <c r="D54" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="16" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -5803,15 +5803,15 @@
       <c r="C55" s="23" t="n">
         <v>220041700130</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="18" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="n">
+      <c r="A56" s="16" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
@@ -5820,15 +5820,15 @@
       <c r="C56" s="23" t="n">
         <v>220041700131</v>
       </c>
-      <c r="D56" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6" t="n">
+      <c r="D56" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="n">
+      <c r="A57" s="16" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -5837,15 +5837,15 @@
       <c r="C57" s="23" t="n">
         <v>220041700132</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="18" t="n">
         <v>11.5</v>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="n">
+      <c r="A58" s="16" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
@@ -5854,15 +5854,15 @@
       <c r="C58" s="23" t="n">
         <v>220041700133</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="E58" s="6" t="n">
+      <c r="E58" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="n">
+      <c r="A59" s="16" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
@@ -5871,10 +5871,10 @@
       <c r="C59" s="23" t="n">
         <v>220041700134</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="E59" s="18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Upload/first.xlsx
+++ b/Upload/first.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t xml:space="preserve">Mech 2nd A</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">SANSAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struck off</t>
   </si>
   <si>
     <t xml:space="preserve">SAROJ BALA</t>
@@ -745,10 +748,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K61" activeCellId="0" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,7 +2981,9 @@
       <c r="J64" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -3011,7 +3016,9 @@
       <c r="J65" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
@@ -3044,7 +3051,9 @@
       <c r="J66" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K66" s="14"/>
+      <c r="K66" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -3077,7 +3086,9 @@
       <c r="J67" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="K67" s="14"/>
+      <c r="K67" s="14" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -3102,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I68" s="5" t="n">
         <v>0</v>
@@ -3110,7 +3121,9 @@
       <c r="J68" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K68" s="14"/>
+      <c r="K68" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -3143,7 +3156,9 @@
       <c r="J69" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K69" s="14"/>
+      <c r="K69" s="14" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
@@ -3176,7 +3191,9 @@
       <c r="J70" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -3209,7 +3226,9 @@
       <c r="J71" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K71" s="14"/>
+      <c r="K71" s="14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -3242,7 +3261,9 @@
       <c r="J72" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K72" s="14"/>
+      <c r="K72" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -3275,7 +3296,9 @@
       <c r="J73" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="K73" s="14"/>
+      <c r="K73" s="14" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -3308,7 +3331,9 @@
       <c r="J74" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -3341,7 +3366,9 @@
       <c r="J75" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -3374,7 +3401,9 @@
       <c r="J76" s="14" t="n">
         <v>63.64</v>
       </c>
-      <c r="K76" s="14"/>
+      <c r="K76" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -3407,7 +3436,9 @@
       <c r="J77" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K77" s="14"/>
+      <c r="K77" s="14" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -3440,7 +3471,9 @@
       <c r="J78" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K78" s="14"/>
+      <c r="K78" s="14" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -3473,7 +3506,9 @@
       <c r="J79" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -3506,7 +3541,9 @@
       <c r="J80" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -3539,7 +3576,9 @@
       <c r="J81" s="14" t="n">
         <v>30.3</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="14" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -3572,7 +3611,9 @@
       <c r="J82" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -3605,7 +3646,9 @@
       <c r="J83" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -3638,7 +3681,9 @@
       <c r="J84" s="14" t="n">
         <v>33.33</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -3671,7 +3716,9 @@
       <c r="J85" s="14" t="n">
         <v>57.58</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -3704,7 +3751,9 @@
       <c r="J86" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="14" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -3737,7 +3786,9 @@
       <c r="J87" s="14" t="n">
         <v>51.52</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="14" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -3770,7 +3821,9 @@
       <c r="J88" s="14" t="n">
         <v>30.3</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="14" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -3803,7 +3856,9 @@
       <c r="J89" s="14" t="n">
         <v>84.85</v>
       </c>
-      <c r="K89" s="14"/>
+      <c r="K89" s="14" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -3836,7 +3891,9 @@
       <c r="J90" s="14" t="n">
         <v>90.91</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="14" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -3869,7 +3926,9 @@
       <c r="J91" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K91" s="14"/>
+      <c r="K91" s="14" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -3902,14 +3961,16 @@
       <c r="J92" s="14" t="n">
         <v>21.21</v>
       </c>
-      <c r="K92" s="14"/>
+      <c r="K92" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
         <v>94</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="11" t="n">
         <v>220041700102</v>
@@ -3935,14 +3996,16 @@
       <c r="J93" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K93" s="14"/>
+      <c r="K93" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>95</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="11" t="n">
         <v>220041700103</v>
@@ -3968,14 +4031,16 @@
       <c r="J94" s="14" t="n">
         <v>54.55</v>
       </c>
-      <c r="K94" s="14"/>
+      <c r="K94" s="14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>96</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
         <v>220041700104</v>
@@ -4001,14 +4066,16 @@
       <c r="J95" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K95" s="14"/>
+      <c r="K95" s="14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>97</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="11" t="n">
         <v>220041700105</v>
@@ -4034,14 +4101,16 @@
       <c r="J96" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K96" s="14"/>
+      <c r="K96" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
         <v>220041700106</v>
@@ -4067,14 +4136,16 @@
       <c r="J97" s="14" t="n">
         <v>72.73</v>
       </c>
-      <c r="K97" s="14"/>
+      <c r="K97" s="14" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>99</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
         <v>220041700107</v>
@@ -4100,14 +4171,16 @@
       <c r="J98" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K98" s="14"/>
+      <c r="K98" s="14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
         <v>100</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
         <v>220041700108</v>
@@ -4133,14 +4206,16 @@
       <c r="J99" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K99" s="14"/>
+      <c r="K99" s="14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
         <v>101</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
         <v>220041700109</v>
@@ -4166,14 +4241,16 @@
       <c r="J100" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K100" s="14"/>
+      <c r="K100" s="14" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>102</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
         <v>220041700110</v>
@@ -4199,14 +4276,16 @@
       <c r="J101" s="14" t="n">
         <v>48.48</v>
       </c>
-      <c r="K101" s="14"/>
+      <c r="K101" s="14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>103</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="11" t="n">
         <v>220041700111</v>
@@ -4232,14 +4311,16 @@
       <c r="J102" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K102" s="14"/>
+      <c r="K102" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>104</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="11" t="n">
         <v>220041700112</v>
@@ -4265,14 +4346,16 @@
       <c r="J103" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K103" s="14"/>
+      <c r="K103" s="14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>105</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104" s="11" t="n">
         <v>220041700113</v>
@@ -4298,14 +4381,16 @@
       <c r="J104" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K104" s="14"/>
+      <c r="K104" s="14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
         <v>106</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="11" t="n">
         <v>220041700115</v>
@@ -4331,14 +4416,16 @@
       <c r="J105" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K105" s="14"/>
+      <c r="K105" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>107</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="11" t="n">
         <v>220041700116</v>
@@ -4364,14 +4451,16 @@
       <c r="J106" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="K106" s="14"/>
+      <c r="K106" s="14" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>108</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="11" t="n">
         <v>220041700117</v>
@@ -4397,14 +4486,16 @@
       <c r="J107" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K107" s="14"/>
+      <c r="K107" s="14" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
         <v>109</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="11" t="n">
         <v>220041700118</v>
@@ -4430,14 +4521,16 @@
       <c r="J108" s="14" t="n">
         <v>84.85</v>
       </c>
-      <c r="K108" s="14"/>
+      <c r="K108" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
         <v>110</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="11" t="n">
         <v>220041700119</v>
@@ -4463,14 +4556,16 @@
       <c r="J109" s="14" t="n">
         <v>42.42</v>
       </c>
-      <c r="K109" s="14"/>
+      <c r="K109" s="14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
         <v>111</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="11" t="n">
         <v>220041700121</v>
@@ -4496,14 +4591,16 @@
       <c r="J110" s="14" t="n">
         <v>81.82</v>
       </c>
-      <c r="K110" s="14"/>
+      <c r="K110" s="14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
         <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="11" t="n">
         <v>220041700122</v>
@@ -4529,14 +4626,16 @@
       <c r="J111" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K111" s="14"/>
+      <c r="K111" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
         <v>113</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" s="11" t="n">
         <v>220041700123</v>
@@ -4562,14 +4661,16 @@
       <c r="J112" s="14" t="n">
         <v>69.7</v>
       </c>
-      <c r="K112" s="14"/>
+      <c r="K112" s="14" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
         <v>114</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C113" s="11" t="n">
         <v>220041700124</v>
@@ -4595,14 +4696,16 @@
       <c r="J113" s="14" t="n">
         <v>75.76</v>
       </c>
-      <c r="K113" s="14"/>
+      <c r="K113" s="14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
         <v>115</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C114" s="11" t="n">
         <v>220041700125</v>
@@ -4628,14 +4731,16 @@
       <c r="J114" s="14" t="n">
         <v>96.97</v>
       </c>
-      <c r="K114" s="14"/>
+      <c r="K114" s="14" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
         <v>116</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C115" s="11" t="n">
         <v>220041700126</v>
@@ -4661,14 +4766,16 @@
       <c r="J115" s="14" t="n">
         <v>27.27</v>
       </c>
-      <c r="K115" s="14"/>
+      <c r="K115" s="14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
         <v>117</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C116" s="11" t="n">
         <v>220041700130</v>
@@ -4694,14 +4801,16 @@
       <c r="J116" s="14" t="n">
         <v>60.61</v>
       </c>
-      <c r="K116" s="14"/>
+      <c r="K116" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
         <v>118</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C117" s="11" t="n">
         <v>220041700131</v>
@@ -4727,14 +4836,16 @@
       <c r="J117" s="14" t="n">
         <v>45.45</v>
       </c>
-      <c r="K117" s="14"/>
+      <c r="K117" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
         <v>119</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C118" s="11" t="n">
         <v>220041700132</v>
@@ -4760,14 +4871,16 @@
       <c r="J118" s="14" t="n">
         <v>78.79</v>
       </c>
-      <c r="K118" s="14"/>
+      <c r="K118" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
         <v>120</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="11" t="n">
         <v>220041700133</v>
@@ -4793,14 +4906,16 @@
       <c r="J119" s="14" t="n">
         <v>72.73</v>
       </c>
-      <c r="K119" s="14"/>
+      <c r="K119" s="14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
         <v>121</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120" s="11" t="n">
         <v>220041700134</v>
@@ -4826,10 +4941,10 @@
       <c r="J120" s="14" t="n">
         <v>33.33</v>
       </c>
-      <c r="K120" s="14"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K120" s="14" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -4850,7 +4965,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K3:K120">
     <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>16</formula>
     </cfRule>
@@ -4886,7 +5001,7 @@
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4903,10 +5018,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,7 +5522,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="23" t="n">
         <v>220041700102</v>
@@ -5424,7 +5539,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="23" t="n">
         <v>220041700103</v>
@@ -5441,7 +5556,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="23" t="n">
         <v>220041700104</v>
@@ -5458,7 +5573,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>220041700105</v>
@@ -5475,7 +5590,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="23" t="n">
         <v>220041700106</v>
@@ -5492,7 +5607,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="23" t="n">
         <v>220041700107</v>
@@ -5509,7 +5624,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="23" t="n">
         <v>220041700108</v>
@@ -5526,7 +5641,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="23" t="n">
         <v>220041700109</v>
@@ -5543,7 +5658,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="23" t="n">
         <v>220041700110</v>
@@ -5560,7 +5675,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="23" t="n">
         <v>220041700111</v>
@@ -5577,7 +5692,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="23" t="n">
         <v>220041700112</v>
@@ -5594,7 +5709,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="23" t="n">
         <v>220041700113</v>
@@ -5611,7 +5726,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="23" t="n">
         <v>220041700115</v>
@@ -5628,7 +5743,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="23" t="n">
         <v>220041700116</v>
@@ -5645,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="23" t="n">
         <v>220041700117</v>
@@ -5662,7 +5777,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>220041700118</v>
@@ -5679,7 +5794,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>220041700119</v>
@@ -5696,7 +5811,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>220041700121</v>
@@ -5713,7 +5828,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="23" t="n">
         <v>220041700122</v>
@@ -5730,7 +5845,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="23" t="n">
         <v>220041700123</v>
@@ -5747,7 +5862,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="23" t="n">
         <v>220041700124</v>
@@ -5764,7 +5879,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="23" t="n">
         <v>220041700125</v>
@@ -5781,7 +5896,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="23" t="n">
         <v>220041700126</v>
@@ -5798,7 +5913,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="23" t="n">
         <v>220041700130</v>
@@ -5815,7 +5930,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="23" t="n">
         <v>220041700131</v>
@@ -5832,7 +5947,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="23" t="n">
         <v>220041700132</v>
@@ -5849,7 +5964,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="23" t="n">
         <v>220041700133</v>
@@ -5866,7 +5981,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="23" t="n">
         <v>220041700134</v>
